--- a/database/industries/siman/sekhouz/cost/yearly.xlsx
+++ b/database/industries/siman/sekhouz/cost/yearly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -31,6 +31,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1391/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1392/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1393/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1394/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1395/12</t>
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
@@ -49,6 +64,9 @@
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>دستمزد مستقیم تولید</t>
@@ -97,9 +115,6 @@
   </si>
   <si>
     <t>تن</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>آلویوم</t>
@@ -620,18 +635,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I202"/>
+  <dimension ref="B1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -640,8 +653,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -652,8 +670,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -664,8 +687,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -674,8 +702,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -686,8 +719,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -698,8 +736,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -708,8 +751,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -730,8 +778,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -740,316 +803,531 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9">
         <v>310240</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>397337</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>525312</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>928857</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>1652287</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="11">
         <v>61519</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>69014</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>72539</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>84284</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>78098</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="9">
         <v>1422832</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>1560098</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>2058719</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>2721217</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>4521166</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="E13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="13">
         <v>1794591</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>2026449</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>2656570</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>3734358</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>6251551</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13">
+      <c r="E15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="13">
         <v>1794591</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>2026449</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>2656570</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>3734358</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>6251551</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="9">
         <v>36941</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-353473</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>426900</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>76068</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-11580</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="15">
+      <c r="E18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="15">
         <v>1831532</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1672976</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>3083470</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>3810426</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>6239971</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
+      <c r="E19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="11">
         <v>23386</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>17226</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>20581</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>18913</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>39509</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9">
         <v>-17226</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-20581</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-18913</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-39509</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-70728</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="13">
+      <c r="E21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="13">
         <v>1837692</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>1669621</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>3085138</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>3789830</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>6208752</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="13">
+      <c r="E23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="13">
         <v>1837692</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1669621</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>3085138</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>3789830</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>6208752</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1058,8 +1336,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1068,8 +1351,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1078,10 +1366,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1100,8 +1393,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1110,202 +1418,327 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="9">
+        <v>15</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="9">
         <v>7444</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>7444</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>187</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="11">
+        <v>15</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="11">
         <v>1961556</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>797485</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>828921</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>333470</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="9">
+        <v>15</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="9">
         <v>8459</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>8241</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>6393</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>54475</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="11">
+        <v>15</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="11">
         <v>25264</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>1954</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>29900</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>20284</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="9">
+        <v>15</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="9">
         <v>198868</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>29024</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>77997</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>39344</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="11">
+        <v>15</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="11">
         <v>2510112</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>203378</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>696533</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>6038036</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="9">
+        <v>15</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="9">
         <v>5541</v>
       </c>
-      <c r="G35" s="9">
+      <c r="L35" s="9">
         <v>15701</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>20904</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>18479</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="11">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11">
+        <v>15</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
         <v>235</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>235</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>5412</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -1313,19 +1746,34 @@
         <v>0</v>
       </c>
       <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
         <v>4717244</v>
       </c>
-      <c r="G37" s="15">
+      <c r="L37" s="15">
         <v>1063462</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>1661070</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>6509687</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1334,8 +1782,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1344,8 +1797,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1354,10 +1812,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1376,8 +1839,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1386,202 +1864,327 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="11">
+        <v>15</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="11">
         <v>1328221</v>
       </c>
-      <c r="G44" s="11">
+      <c r="L44" s="11">
         <v>2495854</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>3100472</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>4000225</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="9">
+        <v>15</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="9">
         <v>36812</v>
       </c>
-      <c r="G45" s="9">
+      <c r="L45" s="9">
         <v>147628</v>
       </c>
-      <c r="H45" s="9">
+      <c r="M45" s="9">
         <v>100275</v>
       </c>
-      <c r="I45" s="9">
+      <c r="N45" s="9">
         <v>675</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="11">
+        <v>15</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="11">
         <v>61474</v>
       </c>
-      <c r="G46" s="11">
+      <c r="L46" s="11">
         <v>123959</v>
       </c>
-      <c r="H46" s="11">
+      <c r="M46" s="11">
         <v>72304</v>
       </c>
-      <c r="I46" s="11">
+      <c r="N46" s="11">
         <v>47978</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="9">
+        <v>15</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="9">
         <v>655270</v>
       </c>
-      <c r="G47" s="9">
+      <c r="L47" s="9">
         <v>741779</v>
       </c>
-      <c r="H47" s="9">
+      <c r="M47" s="9">
         <v>163412</v>
       </c>
-      <c r="I47" s="9">
+      <c r="N47" s="9">
         <v>3768</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="11">
+        <v>15</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="11">
         <v>12293630</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>13237085</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>20539938</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>21503630</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="9">
+        <v>15</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="9">
         <v>88823</v>
       </c>
-      <c r="G49" s="9">
+      <c r="L49" s="9">
         <v>94854</v>
       </c>
-      <c r="H49" s="9">
+      <c r="M49" s="9">
         <v>81076</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>109899</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="11">
+        <v>15</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="11">
         <v>235</v>
       </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
         <v>10136</v>
       </c>
-      <c r="I50" s="11">
+      <c r="N50" s="11">
         <v>42560</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -1589,19 +2192,34 @@
         <v>0</v>
       </c>
       <c r="F51" s="15">
+        <v>0</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15">
+        <v>0</v>
+      </c>
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
         <v>14464465</v>
       </c>
-      <c r="G51" s="15">
+      <c r="L51" s="15">
         <v>16841159</v>
       </c>
-      <c r="H51" s="15">
+      <c r="M51" s="15">
         <v>24067613</v>
       </c>
-      <c r="I51" s="15">
+      <c r="N51" s="15">
         <v>25708735</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1610,8 +2228,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1620,8 +2243,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1630,10 +2258,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1652,8 +2285,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1662,202 +2310,327 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="9">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9">
+        <v>15</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9">
         <v>7257</v>
       </c>
-      <c r="H57" s="9">
-        <v>0</v>
-      </c>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M57" s="9">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="11">
+        <v>15</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="11">
         <v>2492293</v>
       </c>
-      <c r="G58" s="11">
+      <c r="L58" s="11">
         <v>2464418</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>3595923</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>3979887</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="9">
+        <v>15</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="9">
         <v>37030</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>149476</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>52113</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>2262</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="11">
+        <v>15</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="11">
         <v>84784</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>96013</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>80324</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>60976</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="9">
+        <v>15</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="9">
         <v>825114</v>
       </c>
-      <c r="G61" s="9">
+      <c r="L61" s="9">
         <v>692806</v>
       </c>
-      <c r="H61" s="9">
+      <c r="M61" s="9">
         <v>202066</v>
       </c>
-      <c r="I61" s="9">
+      <c r="N61" s="9">
         <v>29939</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="11">
+        <v>15</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="11">
         <v>14124302</v>
       </c>
-      <c r="G62" s="11">
+      <c r="L62" s="11">
         <v>12743930</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>15445534</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>13763180</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="9">
+        <v>15</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="9">
         <v>78664</v>
       </c>
-      <c r="G63" s="9">
+      <c r="L63" s="9">
         <v>89651</v>
       </c>
-      <c r="H63" s="9">
+      <c r="M63" s="9">
         <v>83496</v>
       </c>
-      <c r="I63" s="9">
+      <c r="N63" s="9">
         <v>76643</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="11">
-        <v>0</v>
-      </c>
-      <c r="G64" s="11">
-        <v>0</v>
-      </c>
-      <c r="H64" s="11">
+        <v>15</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
+        <v>0</v>
+      </c>
+      <c r="M64" s="11">
         <v>4959</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>39074</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -1865,19 +2638,34 @@
         <v>0</v>
       </c>
       <c r="F65" s="15">
+        <v>0</v>
+      </c>
+      <c r="G65" s="15">
+        <v>0</v>
+      </c>
+      <c r="H65" s="15">
+        <v>0</v>
+      </c>
+      <c r="I65" s="15">
+        <v>0</v>
+      </c>
+      <c r="J65" s="15">
+        <v>0</v>
+      </c>
+      <c r="K65" s="15">
         <v>17642187</v>
       </c>
-      <c r="G65" s="15">
+      <c r="L65" s="15">
         <v>16243551</v>
       </c>
-      <c r="H65" s="15">
+      <c r="M65" s="15">
         <v>19464415</v>
       </c>
-      <c r="I65" s="15">
+      <c r="N65" s="15">
         <v>17951961</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1886,8 +2674,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1896,8 +2689,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1906,10 +2704,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1928,8 +2731,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1938,202 +2756,327 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F71" s="9">
+        <v>15</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="9">
         <v>7444</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>187</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>187</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="11">
+        <v>15</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="11">
         <v>797484</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>828921</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>333470</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>353808</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="9">
+        <v>15</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="9">
         <v>8241</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>6393</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>54555</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>52888</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="11">
+        <v>15</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="11">
         <v>1954</v>
       </c>
-      <c r="G74" s="11">
+      <c r="L74" s="11">
         <v>29900</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>21880</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>7286</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="9">
+        <v>15</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="9">
         <v>29024</v>
       </c>
-      <c r="G75" s="9">
+      <c r="L75" s="9">
         <v>77997</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>39343</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>13173</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="11">
+        <v>15</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="11">
         <v>679440</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>696533</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>5790937</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>13778486</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="9">
+        <v>15</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="9">
         <v>15700</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>20904</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>18484</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>51735</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" s="11">
+        <v>15</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="11">
         <v>235</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>235</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>5412</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>8898</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -2141,19 +3084,34 @@
         <v>0</v>
       </c>
       <c r="F79" s="15">
+        <v>0</v>
+      </c>
+      <c r="G79" s="15">
+        <v>0</v>
+      </c>
+      <c r="H79" s="15">
+        <v>0</v>
+      </c>
+      <c r="I79" s="15">
+        <v>0</v>
+      </c>
+      <c r="J79" s="15">
+        <v>0</v>
+      </c>
+      <c r="K79" s="15">
         <v>1539522</v>
       </c>
-      <c r="G79" s="15">
+      <c r="L79" s="15">
         <v>1661070</v>
       </c>
-      <c r="H79" s="15">
+      <c r="M79" s="15">
         <v>6264268</v>
       </c>
-      <c r="I79" s="15">
+      <c r="N79" s="15">
         <v>14266461</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2162,8 +3120,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2172,8 +3135,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2182,10 +3150,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2204,8 +3177,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2214,202 +3202,327 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="9">
+        <v>15</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" s="9">
         <v>2861</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>2861</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>72</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="11">
+        <v>15</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="11">
         <v>86513</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>38357</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>47976</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>38097</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="9">
+        <v>15</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="9">
         <v>1471</v>
       </c>
-      <c r="G87" s="9">
+      <c r="L87" s="9">
         <v>2458</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>3085</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>30895</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F88" s="11">
+        <v>15</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="11">
         <v>2842</v>
       </c>
-      <c r="G88" s="11">
+      <c r="L88" s="11">
         <v>303</v>
       </c>
-      <c r="H88" s="11">
+      <c r="M88" s="11">
         <v>4541</v>
       </c>
-      <c r="I88" s="11">
+      <c r="N88" s="11">
         <v>7047</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F89" s="9">
+        <v>15</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="9">
         <v>6445</v>
       </c>
-      <c r="G89" s="9">
+      <c r="L89" s="9">
         <v>1885</v>
       </c>
-      <c r="H89" s="9">
+      <c r="M89" s="9">
         <v>3867</v>
       </c>
-      <c r="I89" s="9">
+      <c r="N89" s="9">
         <v>1794</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F90" s="11">
+        <v>15</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" s="11">
         <v>18028</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>9126</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>14541</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>199820</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F91" s="9">
+        <v>15</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="9">
         <v>3353</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>16254</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>23607</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>44992</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F92" s="11">
-        <v>0</v>
-      </c>
-      <c r="G92" s="11">
+        <v>15</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="11">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11">
         <v>31</v>
       </c>
-      <c r="H92" s="11">
+      <c r="M92" s="11">
         <v>31</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>622</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
@@ -2417,19 +3530,34 @@
         <v>0</v>
       </c>
       <c r="F93" s="15">
+        <v>0</v>
+      </c>
+      <c r="G93" s="15">
+        <v>0</v>
+      </c>
+      <c r="H93" s="15">
+        <v>0</v>
+      </c>
+      <c r="I93" s="15">
+        <v>0</v>
+      </c>
+      <c r="J93" s="15">
+        <v>0</v>
+      </c>
+      <c r="K93" s="15">
         <v>121513</v>
       </c>
-      <c r="G93" s="15">
+      <c r="L93" s="15">
         <v>71275</v>
       </c>
-      <c r="H93" s="15">
+      <c r="M93" s="15">
         <v>97720</v>
       </c>
-      <c r="I93" s="15">
+      <c r="N93" s="15">
         <v>323339</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2438,8 +3566,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2448,8 +3581,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2458,10 +3596,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2480,8 +3623,23 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2490,202 +3648,327 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F99" s="9">
-        <v>0</v>
-      </c>
-      <c r="G99" s="9">
-        <v>0</v>
-      </c>
-      <c r="H99" s="9">
-        <v>0</v>
-      </c>
-      <c r="I99" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99" s="9">
+        <v>0</v>
+      </c>
+      <c r="L99" s="9">
+        <v>0</v>
+      </c>
+      <c r="M99" s="9">
+        <v>0</v>
+      </c>
+      <c r="N99" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F100" s="11">
+        <v>15</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100" s="11">
         <v>75000</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>142313</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>284174</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>1002655</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F101" s="9">
+        <v>15</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="9">
         <v>8744</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>65216</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>57156</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F102" s="11">
+        <v>15</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="11">
         <v>9000</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>19349</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>22195</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>23180</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F103" s="9">
+        <v>15</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="9">
         <v>24031</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>30174</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>7543</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>895</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F104" s="11">
+        <v>15</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" s="11">
         <v>164718</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>190099</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>552165</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>791081</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F105" s="9">
+        <v>15</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="9">
         <v>71793</v>
       </c>
-      <c r="G105" s="9">
+      <c r="L105" s="9">
         <v>104606</v>
       </c>
-      <c r="H105" s="9">
+      <c r="M105" s="9">
         <v>141095</v>
       </c>
-      <c r="I105" s="9">
+      <c r="N105" s="9">
         <v>436539</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F106" s="11">
+        <v>15</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" s="11">
         <v>31</v>
       </c>
-      <c r="G106" s="11">
-        <v>0</v>
-      </c>
-      <c r="H106" s="11">
+      <c r="L106" s="11">
+        <v>0</v>
+      </c>
+      <c r="M106" s="11">
         <v>5078</v>
       </c>
-      <c r="I106" s="11">
+      <c r="N106" s="11">
         <v>31175</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
@@ -2693,19 +3976,34 @@
         <v>0</v>
       </c>
       <c r="F107" s="15">
+        <v>0</v>
+      </c>
+      <c r="G107" s="15">
+        <v>0</v>
+      </c>
+      <c r="H107" s="15">
+        <v>0</v>
+      </c>
+      <c r="I107" s="15">
+        <v>0</v>
+      </c>
+      <c r="J107" s="15">
+        <v>0</v>
+      </c>
+      <c r="K107" s="15">
         <v>353317</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>551757</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>1069406</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>2285907</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2714,8 +4012,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2724,8 +4027,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2734,10 +4042,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2756,8 +4069,23 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2766,202 +4094,327 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F113" s="9">
-        <v>0</v>
-      </c>
-      <c r="G113" s="9">
+        <v>15</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K113" s="9">
+        <v>0</v>
+      </c>
+      <c r="L113" s="9">
         <v>2789</v>
       </c>
-      <c r="H113" s="9">
-        <v>0</v>
-      </c>
-      <c r="I113" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M113" s="9">
+        <v>0</v>
+      </c>
+      <c r="N113" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F114" s="11">
+        <v>15</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" s="11">
         <v>123157</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>132694</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>293059</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>940541</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F115" s="9">
+        <v>15</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" s="9">
         <v>7757</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>64589</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>29347</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>1283</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F116" s="11">
+        <v>15</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" s="11">
         <v>11540</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>15111</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>19884</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>24879</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="9">
+        <v>15</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" s="9">
         <v>28592</v>
       </c>
-      <c r="G117" s="9">
+      <c r="L117" s="9">
         <v>28192</v>
       </c>
-      <c r="H117" s="9">
+      <c r="M117" s="9">
         <v>8989</v>
       </c>
-      <c r="I117" s="9">
+      <c r="N117" s="9">
         <v>1741</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F118" s="11">
+        <v>15</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" s="11">
         <v>167399</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>184684</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>454415</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>380241</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="9">
+        <v>15</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="9">
         <v>58892</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>97253</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>120840</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>279582</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="11">
-        <v>0</v>
-      </c>
-      <c r="G120" s="11">
-        <v>0</v>
-      </c>
-      <c r="H120" s="11">
+        <v>15</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K120" s="11">
+        <v>0</v>
+      </c>
+      <c r="L120" s="11">
+        <v>0</v>
+      </c>
+      <c r="M120" s="11">
         <v>2323</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>24020</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
@@ -2969,19 +4422,34 @@
         <v>0</v>
       </c>
       <c r="F121" s="15">
+        <v>0</v>
+      </c>
+      <c r="G121" s="15">
+        <v>0</v>
+      </c>
+      <c r="H121" s="15">
+        <v>0</v>
+      </c>
+      <c r="I121" s="15">
+        <v>0</v>
+      </c>
+      <c r="J121" s="15">
+        <v>0</v>
+      </c>
+      <c r="K121" s="15">
         <v>397337</v>
       </c>
-      <c r="G121" s="15">
+      <c r="L121" s="15">
         <v>525312</v>
       </c>
-      <c r="H121" s="15">
+      <c r="M121" s="15">
         <v>928857</v>
       </c>
-      <c r="I121" s="15">
+      <c r="N121" s="15">
         <v>1652287</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2990,8 +4458,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3000,8 +4473,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3010,10 +4488,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3032,8 +4515,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3042,202 +4540,327 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" s="9">
+        <v>15</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" s="9">
         <v>2861</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>72</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>72</v>
       </c>
-      <c r="I127" s="9">
+      <c r="N127" s="9">
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F128" s="11">
+        <v>15</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K128" s="11">
         <v>38356</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>47976</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>39091</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>100211</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" s="9">
+        <v>15</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" s="9">
         <v>2458</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>3085</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>30894</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>29994</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F130" s="11">
+        <v>15</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K130" s="11">
         <v>302</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>4541</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>6852</v>
       </c>
-      <c r="I130" s="11">
+      <c r="N130" s="11">
         <v>5348</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F131" s="9">
+        <v>15</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" s="9">
         <v>1884</v>
       </c>
-      <c r="G131" s="9">
+      <c r="L131" s="9">
         <v>3867</v>
       </c>
-      <c r="H131" s="9">
+      <c r="M131" s="9">
         <v>2421</v>
       </c>
-      <c r="I131" s="9">
+      <c r="N131" s="9">
         <v>948</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F132" s="11">
+        <v>15</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K132" s="11">
         <v>15347</v>
       </c>
-      <c r="G132" s="11">
+      <c r="L132" s="11">
         <v>14541</v>
       </c>
-      <c r="H132" s="11">
+      <c r="M132" s="11">
         <v>112291</v>
       </c>
-      <c r="I132" s="11">
+      <c r="N132" s="11">
         <v>610660</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F133" s="9">
+        <v>15</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" s="9">
         <v>16254</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>23607</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>43862</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>201949</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F134" s="11">
+        <v>15</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K134" s="11">
         <v>31</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>31</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>2786</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>7777</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
@@ -3245,19 +4868,34 @@
         <v>0</v>
       </c>
       <c r="F135" s="15">
+        <v>0</v>
+      </c>
+      <c r="G135" s="15">
+        <v>0</v>
+      </c>
+      <c r="H135" s="15">
+        <v>0</v>
+      </c>
+      <c r="I135" s="15">
+        <v>0</v>
+      </c>
+      <c r="J135" s="15">
+        <v>0</v>
+      </c>
+      <c r="K135" s="15">
         <v>77493</v>
       </c>
-      <c r="G135" s="15">
+      <c r="L135" s="15">
         <v>97720</v>
       </c>
-      <c r="H135" s="15">
+      <c r="M135" s="15">
         <v>238269</v>
       </c>
-      <c r="I135" s="15">
+      <c r="N135" s="15">
         <v>956959</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3266,8 +4904,13 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3276,8 +4919,13 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3286,10 +4934,15 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3308,8 +4961,23 @@
       <c r="I139" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3318,200 +4986,325 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F141" s="9">
+        <v>15</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K141" s="9">
         <v>384336</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>384336</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>385027</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>385027</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F142" s="11">
+        <v>15</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K142" s="11">
         <v>44104</v>
       </c>
-      <c r="G142" s="11">
+      <c r="L142" s="11">
         <v>48097</v>
       </c>
-      <c r="H142" s="11">
+      <c r="M142" s="11">
         <v>57878</v>
       </c>
-      <c r="I142" s="11">
+      <c r="N142" s="11">
         <v>114244</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F143" s="9">
+        <v>15</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K143" s="9">
         <v>173898</v>
       </c>
-      <c r="G143" s="9">
+      <c r="L143" s="9">
         <v>298265</v>
       </c>
-      <c r="H143" s="9">
+      <c r="M143" s="9">
         <v>482559</v>
       </c>
-      <c r="I143" s="9">
+      <c r="N143" s="9">
         <v>567141</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F144" s="11">
+        <v>15</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K144" s="11">
         <v>112492</v>
       </c>
-      <c r="G144" s="11">
+      <c r="L144" s="11">
         <v>155067</v>
       </c>
-      <c r="H144" s="11">
+      <c r="M144" s="11">
         <v>151873</v>
       </c>
-      <c r="I144" s="11">
+      <c r="N144" s="11">
         <v>347417</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F145" s="9">
+        <v>15</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K145" s="9">
         <v>32408</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>64946</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>49579</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>45598</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F146" s="11">
+        <v>15</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K146" s="11">
         <v>7182</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>44872</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>20876</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>33094</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F147" s="9">
+        <v>15</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K147" s="9">
         <v>605125</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>1035221</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>1129305</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>2434764</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" s="11">
+        <v>15</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L148" s="11">
         <v>131915</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>131915</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>114930</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3520,8 +5313,13 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3530,8 +5328,13 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3540,10 +5343,15 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -3562,8 +5370,23 @@
       <c r="I152" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M152" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N152" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3572,176 +5395,286 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F154" s="9">
+        <v>15</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K154" s="9">
         <v>56467</v>
       </c>
-      <c r="G154" s="9">
+      <c r="L154" s="9">
         <v>57020</v>
       </c>
-      <c r="H154" s="9">
+      <c r="M154" s="9">
         <v>91655</v>
       </c>
-      <c r="I154" s="9">
+      <c r="N154" s="9">
         <v>250650</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F155" s="11">
+        <v>15</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K155" s="11">
         <v>237531</v>
       </c>
-      <c r="G155" s="11">
+      <c r="L155" s="11">
         <v>441759</v>
       </c>
-      <c r="H155" s="11">
+      <c r="M155" s="11">
         <v>569993</v>
       </c>
-      <c r="I155" s="11">
+      <c r="N155" s="11">
         <v>565926</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F156" s="9">
+        <v>15</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K156" s="9">
         <v>146403</v>
       </c>
-      <c r="G156" s="9">
+      <c r="L156" s="9">
         <v>156092</v>
       </c>
-      <c r="H156" s="9">
+      <c r="M156" s="9">
         <v>306968</v>
       </c>
-      <c r="I156" s="9">
+      <c r="N156" s="9">
         <v>483138</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F157" s="11">
+        <v>15</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K157" s="11">
         <v>36673</v>
       </c>
-      <c r="G157" s="11">
+      <c r="L157" s="11">
         <v>40678</v>
       </c>
-      <c r="H157" s="11">
+      <c r="M157" s="11">
         <v>46159</v>
       </c>
-      <c r="I157" s="11">
+      <c r="N157" s="11">
         <v>237527</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F158" s="9">
+        <v>15</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K158" s="9">
         <v>13399</v>
       </c>
-      <c r="G158" s="9">
+      <c r="L158" s="9">
         <v>14361</v>
       </c>
-      <c r="H158" s="9">
+      <c r="M158" s="9">
         <v>26883</v>
       </c>
-      <c r="I158" s="9">
+      <c r="N158" s="9">
         <v>36788</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F159" s="11">
+        <v>15</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K159" s="11">
         <v>808270</v>
       </c>
-      <c r="G159" s="11">
+      <c r="L159" s="11">
         <v>1102811</v>
       </c>
-      <c r="H159" s="11">
+      <c r="M159" s="11">
         <v>1740281</v>
       </c>
-      <c r="I159" s="11">
+      <c r="N159" s="11">
         <v>3972184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F160" s="9">
+        <v>15</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K160" s="9">
         <v>131915</v>
       </c>
-      <c r="G160" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H160" s="9">
+      <c r="L160" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M160" s="9">
         <v>500987</v>
       </c>
-      <c r="I160" s="9">
+      <c r="N160" s="9">
         <v>732495</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3750,8 +5683,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3760,8 +5698,13 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3770,10 +5713,15 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -3792,8 +5740,23 @@
       <c r="I164" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K164" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M164" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N164" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3802,200 +5765,325 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G166" s="9">
+        <v>15</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K166" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L166" s="9">
         <v>384319</v>
       </c>
-      <c r="H166" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I166" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M166" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N166" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F167" s="11">
+        <v>15</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J167" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K167" s="11">
         <v>49415</v>
       </c>
-      <c r="G167" s="11">
+      <c r="L167" s="11">
         <v>53844</v>
       </c>
-      <c r="H167" s="11">
+      <c r="M167" s="11">
         <v>81498</v>
       </c>
-      <c r="I167" s="11">
+      <c r="N167" s="11">
         <v>236324</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F168" s="9">
+        <v>15</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I168" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K168" s="9">
         <v>209479</v>
       </c>
-      <c r="G168" s="9">
+      <c r="L168" s="9">
         <v>432103</v>
       </c>
-      <c r="H168" s="9">
+      <c r="M168" s="9">
         <v>563142</v>
       </c>
-      <c r="I168" s="9">
+      <c r="N168" s="9">
         <v>567197</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F169" s="11">
+        <v>15</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I169" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J169" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K169" s="11">
         <v>136111</v>
       </c>
-      <c r="G169" s="11">
+      <c r="L169" s="11">
         <v>157385</v>
       </c>
-      <c r="H169" s="11">
+      <c r="M169" s="11">
         <v>247547</v>
       </c>
-      <c r="I169" s="11">
+      <c r="N169" s="11">
         <v>408013</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F170" s="9">
+        <v>15</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K170" s="9">
         <v>34652</v>
       </c>
-      <c r="G170" s="9">
+      <c r="L170" s="9">
         <v>40692</v>
       </c>
-      <c r="H170" s="9">
+      <c r="M170" s="9">
         <v>44485</v>
       </c>
-      <c r="I170" s="9">
+      <c r="N170" s="9">
         <v>58152</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D171" s="11"/>
       <c r="E171" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F171" s="11">
+        <v>15</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I171" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K171" s="11">
         <v>11852</v>
       </c>
-      <c r="G171" s="11">
+      <c r="L171" s="11">
         <v>14492</v>
       </c>
-      <c r="H171" s="11">
+      <c r="M171" s="11">
         <v>29420</v>
       </c>
-      <c r="I171" s="11">
+      <c r="N171" s="11">
         <v>27627</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F172" s="9">
+        <v>15</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I172" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K172" s="9">
         <v>748653</v>
       </c>
-      <c r="G172" s="9">
+      <c r="L172" s="9">
         <v>1084795</v>
       </c>
-      <c r="H172" s="9">
+      <c r="M172" s="9">
         <v>1447255</v>
       </c>
-      <c r="I172" s="9">
+      <c r="N172" s="9">
         <v>3647848</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H173" s="11">
+        <v>15</v>
+      </c>
+      <c r="H173" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I173" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K173" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L173" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M173" s="11">
         <v>468441</v>
       </c>
-      <c r="I173" s="11">
+      <c r="N173" s="11">
         <v>614731</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4004,8 +6092,13 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4014,8 +6107,13 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4024,10 +6122,15 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -4046,8 +6149,23 @@
       <c r="I177" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M177" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N177" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4056,200 +6174,325 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F179" s="9">
+        <v>15</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K179" s="9">
         <v>384336</v>
       </c>
-      <c r="G179" s="9">
+      <c r="L179" s="9">
         <v>385027</v>
       </c>
-      <c r="H179" s="9">
+      <c r="M179" s="9">
         <v>385027</v>
       </c>
-      <c r="I179" s="9">
+      <c r="N179" s="9">
         <v>385027</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F180" s="11">
+        <v>15</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I180" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J180" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K180" s="11">
         <v>48096</v>
       </c>
-      <c r="G180" s="11">
+      <c r="L180" s="11">
         <v>57878</v>
       </c>
-      <c r="H180" s="11">
+      <c r="M180" s="11">
         <v>117225</v>
       </c>
-      <c r="I180" s="11">
+      <c r="N180" s="11">
         <v>283236</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F181" s="9">
+        <v>15</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K181" s="9">
         <v>298265</v>
       </c>
-      <c r="G181" s="9">
+      <c r="L181" s="9">
         <v>482559</v>
       </c>
-      <c r="H181" s="9">
+      <c r="M181" s="9">
         <v>566291</v>
       </c>
-      <c r="I181" s="9">
+      <c r="N181" s="9">
         <v>567123</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F182" s="11">
+        <v>15</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I182" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J182" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K182" s="11">
         <v>154555</v>
       </c>
-      <c r="G182" s="11">
+      <c r="L182" s="11">
         <v>151873</v>
       </c>
-      <c r="H182" s="11">
+      <c r="M182" s="11">
         <v>313163</v>
       </c>
-      <c r="I182" s="11">
+      <c r="N182" s="11">
         <v>734010</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F183" s="9">
+        <v>15</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K183" s="9">
         <v>64912</v>
       </c>
-      <c r="G183" s="9">
+      <c r="L183" s="9">
         <v>49579</v>
       </c>
-      <c r="H183" s="9">
+      <c r="M183" s="9">
         <v>61536</v>
       </c>
-      <c r="I183" s="9">
+      <c r="N183" s="9">
         <v>71965</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F184" s="11">
+        <v>15</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I184" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J184" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K184" s="11">
         <v>22588</v>
       </c>
-      <c r="G184" s="11">
+      <c r="L184" s="11">
         <v>20876</v>
       </c>
-      <c r="H184" s="11">
+      <c r="M184" s="11">
         <v>19391</v>
       </c>
-      <c r="I184" s="11">
+      <c r="N184" s="11">
         <v>44320</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F185" s="9">
+        <v>15</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K185" s="9">
         <v>1035287</v>
       </c>
-      <c r="G185" s="9">
+      <c r="L185" s="9">
         <v>1129305</v>
       </c>
-      <c r="H185" s="9">
+      <c r="M185" s="9">
         <v>2372971</v>
       </c>
-      <c r="I185" s="9">
+      <c r="N185" s="9">
         <v>3903528</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F186" s="11">
+        <v>15</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I186" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J186" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K186" s="11">
         <v>131915</v>
       </c>
-      <c r="G186" s="11">
+      <c r="L186" s="11">
         <v>131915</v>
       </c>
-      <c r="H186" s="11">
+      <c r="M186" s="11">
         <v>514782</v>
       </c>
-      <c r="I186" s="11">
+      <c r="N186" s="11">
         <v>874017</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4258,8 +6501,13 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4268,8 +6516,13 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4278,10 +6531,15 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+    </row>
+    <row r="190" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -4300,8 +6558,23 @@
       <c r="I190" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K190" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M190" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N190" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4310,246 +6583,416 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
-      <c r="E192" s="9">
+      <c r="E192" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I192" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J192" s="9">
         <v>19609</v>
       </c>
-      <c r="F192" s="9">
+      <c r="K192" s="9">
         <v>19532</v>
       </c>
-      <c r="G192" s="9">
+      <c r="L192" s="9">
         <v>21532</v>
       </c>
-      <c r="H192" s="9">
+      <c r="M192" s="9">
         <v>35126</v>
       </c>
-      <c r="I192" s="9">
+      <c r="N192" s="9">
         <v>34362</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
-      <c r="E193" s="11">
-        <v>0</v>
-      </c>
-      <c r="F193" s="11">
-        <v>0</v>
-      </c>
-      <c r="G193" s="11">
-        <v>0</v>
-      </c>
-      <c r="H193" s="11">
-        <v>0</v>
-      </c>
-      <c r="I193" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E193" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H193" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I193" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J193" s="11">
+        <v>0</v>
+      </c>
+      <c r="K193" s="11">
+        <v>0</v>
+      </c>
+      <c r="L193" s="11">
+        <v>0</v>
+      </c>
+      <c r="M193" s="11">
+        <v>0</v>
+      </c>
+      <c r="N193" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
-      <c r="E194" s="9">
-        <v>0</v>
-      </c>
-      <c r="F194" s="9">
-        <v>0</v>
-      </c>
-      <c r="G194" s="9">
-        <v>0</v>
-      </c>
-      <c r="H194" s="9">
-        <v>0</v>
-      </c>
-      <c r="I194" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E194" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J194" s="9">
+        <v>0</v>
+      </c>
+      <c r="K194" s="9">
+        <v>0</v>
+      </c>
+      <c r="L194" s="9">
+        <v>0</v>
+      </c>
+      <c r="M194" s="9">
+        <v>0</v>
+      </c>
+      <c r="N194" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
-      <c r="E195" s="11">
-        <v>0</v>
-      </c>
-      <c r="F195" s="11">
-        <v>0</v>
-      </c>
-      <c r="G195" s="11">
-        <v>0</v>
-      </c>
-      <c r="H195" s="11">
-        <v>0</v>
-      </c>
-      <c r="I195" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E195" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I195" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J195" s="11">
+        <v>0</v>
+      </c>
+      <c r="K195" s="11">
+        <v>0</v>
+      </c>
+      <c r="L195" s="11">
+        <v>0</v>
+      </c>
+      <c r="M195" s="11">
+        <v>0</v>
+      </c>
+      <c r="N195" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
-      <c r="E196" s="9">
-        <v>0</v>
-      </c>
-      <c r="F196" s="9">
-        <v>0</v>
-      </c>
-      <c r="G196" s="9">
-        <v>0</v>
-      </c>
-      <c r="H196" s="9">
-        <v>0</v>
-      </c>
-      <c r="I196" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E196" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I196" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J196" s="9">
+        <v>0</v>
+      </c>
+      <c r="K196" s="9">
+        <v>0</v>
+      </c>
+      <c r="L196" s="9">
+        <v>0</v>
+      </c>
+      <c r="M196" s="9">
+        <v>0</v>
+      </c>
+      <c r="N196" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
-      <c r="E197" s="11">
+      <c r="E197" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I197" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J197" s="11">
         <v>405489</v>
       </c>
-      <c r="F197" s="11">
+      <c r="K197" s="11">
         <v>423558</v>
       </c>
-      <c r="G197" s="11">
+      <c r="L197" s="11">
         <v>443229</v>
       </c>
-      <c r="H197" s="11">
+      <c r="M197" s="11">
         <v>534460</v>
       </c>
-      <c r="I197" s="11">
+      <c r="N197" s="11">
         <v>1372871</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
-      <c r="E198" s="9">
+      <c r="E198" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H198" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I198" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J198" s="9">
         <v>357136</v>
       </c>
-      <c r="F198" s="9">
+      <c r="K198" s="9">
         <v>384081</v>
       </c>
-      <c r="G198" s="9">
+      <c r="L198" s="9">
         <v>419689</v>
       </c>
-      <c r="H198" s="9">
+      <c r="M198" s="9">
         <v>278278</v>
       </c>
-      <c r="I198" s="9">
+      <c r="N198" s="9">
         <v>90904</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
-      <c r="E199" s="11">
+      <c r="E199" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H199" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I199" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J199" s="11">
         <v>332386</v>
       </c>
-      <c r="F199" s="11">
+      <c r="K199" s="11">
         <v>374346</v>
       </c>
-      <c r="G199" s="11">
+      <c r="L199" s="11">
         <v>321739</v>
       </c>
-      <c r="H199" s="11">
+      <c r="M199" s="11">
         <v>402174</v>
       </c>
-      <c r="I199" s="11">
+      <c r="N199" s="11">
         <v>526103</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
-      <c r="E200" s="9">
-        <v>0</v>
-      </c>
-      <c r="F200" s="9">
-        <v>0</v>
-      </c>
-      <c r="G200" s="9">
-        <v>0</v>
-      </c>
-      <c r="H200" s="9">
-        <v>0</v>
-      </c>
-      <c r="I200" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E200" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H200" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I200" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J200" s="9">
+        <v>0</v>
+      </c>
+      <c r="K200" s="9">
+        <v>0</v>
+      </c>
+      <c r="L200" s="9">
+        <v>0</v>
+      </c>
+      <c r="M200" s="9">
+        <v>0</v>
+      </c>
+      <c r="N200" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
-      <c r="E201" s="11">
+      <c r="E201" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I201" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J201" s="11">
         <v>308212</v>
       </c>
-      <c r="F201" s="11">
+      <c r="K201" s="11">
         <v>358581</v>
       </c>
-      <c r="G201" s="11">
+      <c r="L201" s="11">
         <v>852530</v>
       </c>
-      <c r="H201" s="11">
+      <c r="M201" s="11">
         <v>1471179</v>
       </c>
-      <c r="I201" s="11">
+      <c r="N201" s="11">
         <v>2496926</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15">
+        <v>0</v>
+      </c>
+      <c r="F202" s="15">
+        <v>0</v>
+      </c>
+      <c r="G202" s="15">
+        <v>0</v>
+      </c>
+      <c r="H202" s="15">
+        <v>0</v>
+      </c>
+      <c r="I202" s="15">
+        <v>0</v>
+      </c>
+      <c r="J202" s="15">
         <v>1422832</v>
       </c>
-      <c r="F202" s="15">
+      <c r="K202" s="15">
         <v>1560098</v>
       </c>
-      <c r="G202" s="15">
+      <c r="L202" s="15">
         <v>2058719</v>
       </c>
-      <c r="H202" s="15">
+      <c r="M202" s="15">
         <v>2721217</v>
       </c>
-      <c r="I202" s="15">
+      <c r="N202" s="15">
         <v>4521166</v>
       </c>
     </row>

--- a/database/industries/siman/sekhouz/cost/yearly.xlsx
+++ b/database/industries/siman/sekhouz/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9546C30-AE7B-4EDF-819C-9E8F5FA912BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +390,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -401,7 +402,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -448,6 +449,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -483,6 +501,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,17 +669,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -659,7 +694,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +711,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -693,7 +728,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -708,7 +743,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -725,7 +760,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -742,7 +777,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -757,7 +792,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -794,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -809,7 +844,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -846,7 +881,7 @@
         <v>1652287</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -883,7 +918,7 @@
         <v>78098</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -920,7 +955,7 @@
         <v>4521166</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
@@ -957,7 +992,7 @@
         <v>6251551</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -994,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -1031,7 +1066,7 @@
         <v>6251551</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1068,7 +1103,7 @@
         <v>-11580</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -1142,7 +1177,7 @@
         <v>6239971</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1176,10 +1211,10 @@
         <v>18913</v>
       </c>
       <c r="N19" s="11">
-        <v>39509</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21950</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1216,7 +1251,7 @@
         <v>-70728</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
@@ -1253,7 +1288,7 @@
         <v>6208752</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1290,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -1327,7 +1362,7 @@
         <v>6208752</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1342,7 +1377,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1357,7 +1392,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1372,7 +1407,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1409,7 +1444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1424,7 +1459,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1463,7 +1498,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1502,7 +1537,7 @@
         <v>333470</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1541,7 +1576,7 @@
         <v>54475</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1580,7 +1615,7 @@
         <v>20284</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1619,7 +1654,7 @@
         <v>39344</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
@@ -1658,7 +1693,7 @@
         <v>6038036</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
@@ -1697,7 +1732,7 @@
         <v>18479</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>39</v>
       </c>
@@ -1736,7 +1771,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>18</v>
       </c>
@@ -1773,7 +1808,7 @@
         <v>6509687</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1788,7 +1823,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1803,7 +1838,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1818,7 +1853,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>40</v>
       </c>
@@ -1855,7 +1890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1870,7 +1905,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
@@ -1909,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>32</v>
       </c>
@@ -1948,7 +1983,7 @@
         <v>4000225</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>33</v>
       </c>
@@ -1987,7 +2022,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>34</v>
       </c>
@@ -2026,7 +2061,7 @@
         <v>47978</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
@@ -2065,7 +2100,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>36</v>
       </c>
@@ -2104,7 +2139,7 @@
         <v>21503630</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>38</v>
       </c>
@@ -2143,7 +2178,7 @@
         <v>109899</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>39</v>
       </c>
@@ -2182,7 +2217,7 @@
         <v>42560</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>18</v>
       </c>
@@ -2219,7 +2254,7 @@
         <v>25708735</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2234,7 +2269,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2249,7 +2284,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2264,7 +2299,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>41</v>
       </c>
@@ -2301,7 +2336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2316,7 +2351,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>30</v>
       </c>
@@ -2355,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>32</v>
       </c>
@@ -2394,7 +2429,7 @@
         <v>3979887</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2468,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>34</v>
       </c>
@@ -2472,7 +2507,7 @@
         <v>60976</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>35</v>
       </c>
@@ -2511,7 +2546,7 @@
         <v>29939</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>36</v>
       </c>
@@ -2550,7 +2585,7 @@
         <v>13763180</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>38</v>
       </c>
@@ -2589,7 +2624,7 @@
         <v>76643</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>39</v>
       </c>
@@ -2628,7 +2663,7 @@
         <v>39074</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>18</v>
       </c>
@@ -2665,7 +2700,7 @@
         <v>17951961</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2680,7 +2715,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2695,7 +2730,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2710,7 +2745,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>42</v>
       </c>
@@ -2747,7 +2782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2762,7 +2797,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>30</v>
       </c>
@@ -2801,7 +2836,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>32</v>
       </c>
@@ -2840,7 +2875,7 @@
         <v>353808</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>33</v>
       </c>
@@ -2879,7 +2914,7 @@
         <v>52888</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>34</v>
       </c>
@@ -2918,7 +2953,7 @@
         <v>7286</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>35</v>
       </c>
@@ -2957,7 +2992,7 @@
         <v>13173</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>36</v>
       </c>
@@ -2996,7 +3031,7 @@
         <v>13778486</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>38</v>
       </c>
@@ -3035,7 +3070,7 @@
         <v>51735</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>39</v>
       </c>
@@ -3074,7 +3109,7 @@
         <v>8898</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>18</v>
       </c>
@@ -3111,7 +3146,7 @@
         <v>14266461</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3126,7 +3161,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3141,7 +3176,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3156,7 +3191,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>43</v>
       </c>
@@ -3193,7 +3228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3208,7 +3243,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>30</v>
       </c>
@@ -3247,7 +3282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
@@ -3286,7 +3321,7 @@
         <v>38097</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>33</v>
       </c>
@@ -3325,7 +3360,7 @@
         <v>30895</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>34</v>
       </c>
@@ -3364,7 +3399,7 @@
         <v>7047</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>35</v>
       </c>
@@ -3403,7 +3438,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>36</v>
       </c>
@@ -3442,7 +3477,7 @@
         <v>199820</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>38</v>
       </c>
@@ -3481,7 +3516,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>39</v>
       </c>
@@ -3520,7 +3555,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>18</v>
       </c>
@@ -3557,7 +3592,7 @@
         <v>323339</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3572,7 +3607,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3587,7 +3622,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3602,7 +3637,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>45</v>
       </c>
@@ -3639,7 +3674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3654,7 +3689,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>30</v>
       </c>
@@ -3693,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>32</v>
       </c>
@@ -3732,7 +3767,7 @@
         <v>1002655</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>33</v>
       </c>
@@ -3771,7 +3806,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>34</v>
       </c>
@@ -3810,7 +3845,7 @@
         <v>23180</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>35</v>
       </c>
@@ -3849,7 +3884,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>36</v>
       </c>
@@ -3888,7 +3923,7 @@
         <v>791081</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>38</v>
       </c>
@@ -3927,7 +3962,7 @@
         <v>436539</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>39</v>
       </c>
@@ -3966,7 +4001,7 @@
         <v>31175</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>18</v>
       </c>
@@ -4003,7 +4038,7 @@
         <v>2285907</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4018,7 +4053,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4033,7 +4068,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4048,7 +4083,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>46</v>
       </c>
@@ -4085,7 +4120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4100,7 +4135,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>30</v>
       </c>
@@ -4139,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>32</v>
       </c>
@@ -4178,7 +4213,7 @@
         <v>940541</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>33</v>
       </c>
@@ -4217,7 +4252,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>34</v>
       </c>
@@ -4256,7 +4291,7 @@
         <v>24879</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>35</v>
       </c>
@@ -4295,7 +4330,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>36</v>
       </c>
@@ -4334,7 +4369,7 @@
         <v>380241</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>38</v>
       </c>
@@ -4373,7 +4408,7 @@
         <v>279582</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>39</v>
       </c>
@@ -4412,7 +4447,7 @@
         <v>24020</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>18</v>
       </c>
@@ -4449,7 +4484,7 @@
         <v>1652287</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4464,7 +4499,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4479,7 +4514,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4494,7 +4529,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>47</v>
       </c>
@@ -4531,7 +4566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4546,7 +4581,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>30</v>
       </c>
@@ -4585,7 +4620,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>32</v>
       </c>
@@ -4624,7 +4659,7 @@
         <v>100211</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>33</v>
       </c>
@@ -4663,7 +4698,7 @@
         <v>29994</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>34</v>
       </c>
@@ -4702,7 +4737,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>35</v>
       </c>
@@ -4741,7 +4776,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>36</v>
       </c>
@@ -4780,7 +4815,7 @@
         <v>610660</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>38</v>
       </c>
@@ -4819,7 +4854,7 @@
         <v>201949</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>39</v>
       </c>
@@ -4858,7 +4893,7 @@
         <v>7777</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>18</v>
       </c>
@@ -4895,7 +4930,7 @@
         <v>956959</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4910,7 +4945,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4925,7 +4960,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4940,7 +4975,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>48</v>
       </c>
@@ -4977,7 +5012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4992,7 +5027,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>30</v>
       </c>
@@ -5031,7 +5066,7 @@
         <v>385027</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>32</v>
       </c>
@@ -5070,7 +5105,7 @@
         <v>114244</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>33</v>
       </c>
@@ -5109,7 +5144,7 @@
         <v>567141</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>34</v>
       </c>
@@ -5148,7 +5183,7 @@
         <v>347417</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>35</v>
       </c>
@@ -5187,7 +5222,7 @@
         <v>45598</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>36</v>
       </c>
@@ -5226,7 +5261,7 @@
         <v>33094</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>38</v>
       </c>
@@ -5265,7 +5300,7 @@
         <v>2434764</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>39</v>
       </c>
@@ -5304,7 +5339,7 @@
         <v>114930</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5319,7 +5354,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5334,7 +5369,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5349,7 +5384,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
         <v>51</v>
       </c>
@@ -5386,7 +5421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5401,7 +5436,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>32</v>
       </c>
@@ -5440,7 +5475,7 @@
         <v>250650</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>33</v>
       </c>
@@ -5479,7 +5514,7 @@
         <v>565926</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>34</v>
       </c>
@@ -5518,7 +5553,7 @@
         <v>483138</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>35</v>
       </c>
@@ -5557,7 +5592,7 @@
         <v>237527</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>36</v>
       </c>
@@ -5596,7 +5631,7 @@
         <v>36788</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>38</v>
       </c>
@@ -5635,7 +5670,7 @@
         <v>3972184</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>39</v>
       </c>
@@ -5674,7 +5709,7 @@
         <v>732495</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5689,7 +5724,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5704,7 +5739,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5719,7 +5754,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B164" s="7" t="s">
         <v>52</v>
       </c>
@@ -5756,7 +5791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5771,7 +5806,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>30</v>
       </c>
@@ -5810,7 +5845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>32</v>
       </c>
@@ -5849,7 +5884,7 @@
         <v>236324</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>33</v>
       </c>
@@ -5888,7 +5923,7 @@
         <v>567197</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>34</v>
       </c>
@@ -5927,7 +5962,7 @@
         <v>408013</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>35</v>
       </c>
@@ -5966,7 +6001,7 @@
         <v>58152</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>36</v>
       </c>
@@ -6005,7 +6040,7 @@
         <v>27627</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>38</v>
       </c>
@@ -6044,7 +6079,7 @@
         <v>3647848</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>39</v>
       </c>
@@ -6083,7 +6118,7 @@
         <v>614731</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -6098,7 +6133,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6113,7 +6148,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6128,7 +6163,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>53</v>
       </c>
@@ -6165,7 +6200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6180,7 +6215,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>30</v>
       </c>
@@ -6219,7 +6254,7 @@
         <v>385027</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>32</v>
       </c>
@@ -6258,7 +6293,7 @@
         <v>283236</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>33</v>
       </c>
@@ -6297,7 +6332,7 @@
         <v>567123</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>34</v>
       </c>
@@ -6336,7 +6371,7 @@
         <v>734010</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>35</v>
       </c>
@@ -6375,7 +6410,7 @@
         <v>71965</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>36</v>
       </c>
@@ -6414,7 +6449,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>38</v>
       </c>
@@ -6453,7 +6488,7 @@
         <v>3903528</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>39</v>
       </c>
@@ -6492,7 +6527,7 @@
         <v>874017</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6507,7 +6542,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -6522,7 +6557,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -6537,7 +6572,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B190" s="7" t="s">
         <v>54</v>
       </c>
@@ -6574,7 +6609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -6589,7 +6624,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>55</v>
       </c>
@@ -6626,7 +6661,7 @@
         <v>34362</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>56</v>
       </c>
@@ -6663,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>57</v>
       </c>
@@ -6700,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>58</v>
       </c>
@@ -6737,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>59</v>
       </c>
@@ -6774,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>60</v>
       </c>
@@ -6811,7 +6846,7 @@
         <v>1372871</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>61</v>
       </c>
@@ -6848,7 +6883,7 @@
         <v>90904</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>62</v>
       </c>
@@ -6885,7 +6920,7 @@
         <v>526103</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="8" t="s">
         <v>63</v>
       </c>
@@ -6922,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="s">
         <v>64</v>
       </c>
@@ -6959,7 +6994,7 @@
         <v>2496926</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="14" t="s">
         <v>18</v>
       </c>

--- a/database/industries/siman/sekhouz/cost/yearly.xlsx
+++ b/database/industries/siman/sekhouz/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4A90B8-2CD0-4AA3-B742-B258C0F9BC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -204,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +375,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -386,7 +387,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -433,6 +434,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -468,6 +486,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,7 +654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/siman/sekhouz/cost/yearly.xlsx
+++ b/database/industries/siman/sekhouz/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4A90B8-2CD0-4AA3-B742-B258C0F9BC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601117D9-23A4-4A06-B6FB-4B128F0CA131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="60">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -100,64 +100,64 @@
     <t>تن</t>
   </si>
   <si>
+    <t>آلویوم</t>
+  </si>
+  <si>
+    <t>سیلیس</t>
+  </si>
+  <si>
+    <t>گچ</t>
+  </si>
+  <si>
+    <t>مارل</t>
+  </si>
+  <si>
+    <t>پاکت</t>
+  </si>
+  <si>
+    <t>عدد</t>
+  </si>
+  <si>
+    <t>سنگ آهن</t>
+  </si>
+  <si>
+    <t>سرباره</t>
+  </si>
+  <si>
+    <t>مقدار خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>عدد / ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>آلویوم</t>
-  </si>
-  <si>
-    <t>سیلیس</t>
-  </si>
-  <si>
-    <t>گچ</t>
-  </si>
-  <si>
-    <t>مارل</t>
-  </si>
-  <si>
-    <t>پاکت</t>
-  </si>
-  <si>
-    <t>عدد</t>
-  </si>
-  <si>
-    <t>سنگ آهن</t>
-  </si>
-  <si>
-    <t>سرباره</t>
-  </si>
-  <si>
-    <t>مقدار خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>میلیون ریال</t>
-  </si>
-  <si>
-    <t>مبلغ خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>نرخ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>تن / ریال</t>
-  </si>
-  <si>
-    <t>عدد / ریال</t>
   </si>
   <si>
     <t>نرخ خرید طی دوره</t>
@@ -659,12 +659,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -674,7 +674,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -708,7 +708,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -742,7 +742,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -764,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -774,95 +774,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>310240</v>
+        <v>397337</v>
       </c>
       <c r="F10" s="9">
-        <v>397337</v>
+        <v>525312</v>
       </c>
       <c r="G10" s="9">
-        <v>525312</v>
+        <v>928857</v>
       </c>
       <c r="H10" s="9">
-        <v>928857</v>
+        <v>1652287</v>
       </c>
       <c r="I10" s="9">
-        <v>1652287</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2924973</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>61519</v>
+        <v>69014</v>
       </c>
       <c r="F11" s="11">
-        <v>69014</v>
+        <v>72539</v>
       </c>
       <c r="G11" s="11">
-        <v>72539</v>
+        <v>84284</v>
       </c>
       <c r="H11" s="11">
-        <v>84284</v>
+        <v>78098</v>
       </c>
       <c r="I11" s="11">
-        <v>78098</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>268250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1422832</v>
+        <v>1560098</v>
       </c>
       <c r="F12" s="9">
-        <v>1560098</v>
+        <v>2058719</v>
       </c>
       <c r="G12" s="9">
-        <v>2058719</v>
+        <v>2721217</v>
       </c>
       <c r="H12" s="9">
-        <v>2721217</v>
+        <v>4521166</v>
       </c>
       <c r="I12" s="9">
-        <v>4521166</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6395161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1794591</v>
+        <v>2026449</v>
       </c>
       <c r="F13" s="13">
-        <v>2026449</v>
+        <v>2656570</v>
       </c>
       <c r="G13" s="13">
-        <v>2656570</v>
+        <v>3734358</v>
       </c>
       <c r="H13" s="13">
-        <v>3734358</v>
+        <v>6251551</v>
       </c>
       <c r="I13" s="13">
-        <v>6251551</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9588384</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -884,51 +884,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1794591</v>
+        <v>2026449</v>
       </c>
       <c r="F15" s="13">
-        <v>2026449</v>
+        <v>2656570</v>
       </c>
       <c r="G15" s="13">
-        <v>2656570</v>
+        <v>3734358</v>
       </c>
       <c r="H15" s="13">
-        <v>3734358</v>
+        <v>6251551</v>
       </c>
       <c r="I15" s="13">
-        <v>6251551</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9588384</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>36941</v>
+        <v>-353473</v>
       </c>
       <c r="F16" s="9">
-        <v>-353473</v>
+        <v>426900</v>
       </c>
       <c r="G16" s="9">
-        <v>426900</v>
+        <v>76068</v>
       </c>
       <c r="H16" s="9">
-        <v>76068</v>
+        <v>-11580</v>
       </c>
       <c r="I16" s="9">
-        <v>-11580</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-115543</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -950,95 +950,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1831532</v>
+        <v>1672976</v>
       </c>
       <c r="F18" s="15">
-        <v>1672976</v>
+        <v>3083470</v>
       </c>
       <c r="G18" s="15">
-        <v>3083470</v>
+        <v>3810426</v>
       </c>
       <c r="H18" s="15">
-        <v>3810426</v>
+        <v>6239971</v>
       </c>
       <c r="I18" s="15">
-        <v>6239971</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9472841</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>23386</v>
+        <v>17226</v>
       </c>
       <c r="F19" s="11">
-        <v>17226</v>
+        <v>20581</v>
       </c>
       <c r="G19" s="11">
-        <v>20581</v>
+        <v>18913</v>
       </c>
       <c r="H19" s="11">
-        <v>18913</v>
+        <v>39509</v>
       </c>
       <c r="I19" s="11">
-        <v>39509</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>70728</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-17226</v>
+        <v>-20581</v>
       </c>
       <c r="F20" s="9">
-        <v>-20581</v>
+        <v>-18913</v>
       </c>
       <c r="G20" s="9">
-        <v>-18913</v>
+        <v>-39509</v>
       </c>
       <c r="H20" s="9">
-        <v>-39509</v>
+        <v>-70728</v>
       </c>
       <c r="I20" s="9">
-        <v>-70728</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-100183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1837692</v>
+        <v>1669621</v>
       </c>
       <c r="F21" s="13">
-        <v>1669621</v>
+        <v>3085138</v>
       </c>
       <c r="G21" s="13">
-        <v>3085138</v>
+        <v>3789830</v>
       </c>
       <c r="H21" s="13">
-        <v>3789830</v>
+        <v>6208752</v>
       </c>
       <c r="I21" s="13">
-        <v>6208752</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9443386</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1060,29 +1060,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1837692</v>
+        <v>1669621</v>
       </c>
       <c r="F23" s="13">
-        <v>1669621</v>
+        <v>3085138</v>
       </c>
       <c r="G23" s="13">
-        <v>3085138</v>
+        <v>3789830</v>
       </c>
       <c r="H23" s="13">
-        <v>3789830</v>
+        <v>6208752</v>
       </c>
       <c r="I23" s="13">
-        <v>6208752</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9443386</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1092,7 +1092,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1102,7 +1102,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1112,7 +1112,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1144,7 +1144,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1152,14 +1152,14 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>7444</v>
       </c>
       <c r="F29" s="9">
         <v>7444</v>
       </c>
       <c r="G29" s="9">
-        <v>7444</v>
+        <v>187</v>
       </c>
       <c r="H29" s="9">
         <v>187</v>
@@ -1168,197 +1168,197 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>1961556</v>
       </c>
       <c r="F30" s="11">
-        <v>1961556</v>
+        <v>797485</v>
       </c>
       <c r="G30" s="11">
-        <v>797485</v>
+        <v>828921</v>
       </c>
       <c r="H30" s="11">
-        <v>828921</v>
+        <v>333470</v>
       </c>
       <c r="I30" s="11">
-        <v>333470</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>353808</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>8459</v>
       </c>
       <c r="F31" s="9">
-        <v>8459</v>
+        <v>8241</v>
       </c>
       <c r="G31" s="9">
-        <v>8241</v>
+        <v>6393</v>
       </c>
       <c r="H31" s="9">
-        <v>6393</v>
+        <v>54475</v>
       </c>
       <c r="I31" s="9">
-        <v>54475</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52889</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>25264</v>
       </c>
       <c r="F32" s="11">
-        <v>25264</v>
+        <v>1954</v>
       </c>
       <c r="G32" s="11">
-        <v>1954</v>
+        <v>29900</v>
       </c>
       <c r="H32" s="11">
-        <v>29900</v>
+        <v>20284</v>
       </c>
       <c r="I32" s="11">
-        <v>20284</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7285</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>198868</v>
       </c>
       <c r="F33" s="9">
-        <v>198868</v>
+        <v>29024</v>
       </c>
       <c r="G33" s="9">
-        <v>29024</v>
+        <v>77997</v>
       </c>
       <c r="H33" s="9">
-        <v>77997</v>
+        <v>39344</v>
       </c>
       <c r="I33" s="9">
-        <v>39344</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13173</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11">
+        <v>2510112</v>
+      </c>
+      <c r="F34" s="11">
+        <v>203378</v>
+      </c>
+      <c r="G34" s="11">
+        <v>696533</v>
+      </c>
+      <c r="H34" s="11">
+        <v>6038036</v>
+      </c>
+      <c r="I34" s="11">
+        <v>13778486</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="11">
-        <v>2510112</v>
-      </c>
-      <c r="G34" s="11">
-        <v>203378</v>
-      </c>
-      <c r="H34" s="11">
-        <v>696533</v>
-      </c>
-      <c r="I34" s="11">
-        <v>6038036</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>26</v>
+      <c r="E35" s="9">
+        <v>5541</v>
       </c>
       <c r="F35" s="9">
-        <v>5541</v>
+        <v>15701</v>
       </c>
       <c r="G35" s="9">
-        <v>15701</v>
+        <v>20904</v>
       </c>
       <c r="H35" s="9">
-        <v>20904</v>
+        <v>18479</v>
       </c>
       <c r="I35" s="9">
-        <v>18479</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51735</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>26</v>
+      <c r="E36" s="11">
+        <v>0</v>
       </c>
       <c r="F36" s="11">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="G36" s="11">
         <v>235</v>
       </c>
       <c r="H36" s="11">
-        <v>235</v>
+        <v>5412</v>
       </c>
       <c r="I36" s="11">
-        <v>5412</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8898</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>0</v>
+        <v>4717244</v>
       </c>
       <c r="F37" s="15">
-        <v>4717244</v>
+        <v>1063462</v>
       </c>
       <c r="G37" s="15">
-        <v>1063462</v>
+        <v>1661070</v>
       </c>
       <c r="H37" s="15">
-        <v>1661070</v>
+        <v>6509687</v>
       </c>
       <c r="I37" s="15">
-        <v>6509687</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14266461</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1368,7 +1368,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1378,7 +1378,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1388,9 +1388,9 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1410,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1420,7 +1420,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1428,213 +1428,213 @@
         <v>25</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>26</v>
+      <c r="E44" s="11">
+        <v>1328221</v>
       </c>
       <c r="F44" s="11">
-        <v>1328221</v>
+        <v>2495854</v>
       </c>
       <c r="G44" s="11">
-        <v>2495854</v>
+        <v>3100472</v>
       </c>
       <c r="H44" s="11">
-        <v>3100472</v>
+        <v>4000225</v>
       </c>
       <c r="I44" s="11">
-        <v>4000225</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5270024</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>26</v>
+      <c r="E45" s="9">
+        <v>36812</v>
       </c>
       <c r="F45" s="9">
-        <v>36812</v>
+        <v>147628</v>
       </c>
       <c r="G45" s="9">
-        <v>147628</v>
+        <v>100275</v>
       </c>
       <c r="H45" s="9">
-        <v>100275</v>
+        <v>675</v>
       </c>
       <c r="I45" s="9">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>26</v>
+      <c r="E46" s="11">
+        <v>61474</v>
       </c>
       <c r="F46" s="11">
-        <v>61474</v>
+        <v>123959</v>
       </c>
       <c r="G46" s="11">
-        <v>123959</v>
+        <v>72304</v>
       </c>
       <c r="H46" s="11">
-        <v>72304</v>
+        <v>47978</v>
       </c>
       <c r="I46" s="11">
-        <v>47978</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>99654</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>26</v>
+      <c r="E47" s="9">
+        <v>655270</v>
       </c>
       <c r="F47" s="9">
-        <v>655270</v>
+        <v>741779</v>
       </c>
       <c r="G47" s="9">
-        <v>741779</v>
+        <v>163412</v>
       </c>
       <c r="H47" s="9">
-        <v>163412</v>
+        <v>3768</v>
       </c>
       <c r="I47" s="9">
-        <v>3768</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>273561</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11">
+        <v>12293630</v>
+      </c>
+      <c r="F48" s="11">
+        <v>13237085</v>
+      </c>
+      <c r="G48" s="11">
+        <v>20539938</v>
+      </c>
+      <c r="H48" s="11">
+        <v>21503630</v>
+      </c>
+      <c r="I48" s="11">
+        <v>5790100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="11">
-        <v>12293630</v>
-      </c>
-      <c r="G48" s="11">
-        <v>13237085</v>
-      </c>
-      <c r="H48" s="11">
-        <v>20539938</v>
-      </c>
-      <c r="I48" s="11">
-        <v>21503630</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>26</v>
+      <c r="E49" s="9">
+        <v>88823</v>
       </c>
       <c r="F49" s="9">
-        <v>88823</v>
+        <v>94854</v>
       </c>
       <c r="G49" s="9">
-        <v>94854</v>
+        <v>81076</v>
       </c>
       <c r="H49" s="9">
-        <v>81076</v>
+        <v>109899</v>
       </c>
       <c r="I49" s="9">
-        <v>109899</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78182</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>26</v>
+      <c r="E50" s="11">
+        <v>235</v>
       </c>
       <c r="F50" s="11">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="G50" s="11">
-        <v>0</v>
+        <v>10136</v>
       </c>
       <c r="H50" s="11">
-        <v>10136</v>
+        <v>42560</v>
       </c>
       <c r="I50" s="11">
-        <v>42560</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20630</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>0</v>
+        <v>14464465</v>
       </c>
       <c r="F51" s="15">
-        <v>14464465</v>
+        <v>16841159</v>
       </c>
       <c r="G51" s="15">
-        <v>16841159</v>
+        <v>24067613</v>
       </c>
       <c r="H51" s="15">
-        <v>24067613</v>
+        <v>25708735</v>
       </c>
       <c r="I51" s="15">
-        <v>25708735</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11535130</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1644,7 +1644,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1654,7 +1654,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1664,9 +1664,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1686,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1696,7 +1696,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
@@ -1704,213 +1704,213 @@
         <v>25</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="9">
+        <v>0</v>
+      </c>
+      <c r="F57" s="9">
+        <v>7257</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F57" s="9">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9">
-        <v>7257</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0</v>
-      </c>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>26</v>
+      <c r="E58" s="11">
+        <v>2492293</v>
       </c>
       <c r="F58" s="11">
-        <v>2492293</v>
+        <v>2464418</v>
       </c>
       <c r="G58" s="11">
-        <v>2464418</v>
+        <v>3595923</v>
       </c>
       <c r="H58" s="11">
-        <v>3595923</v>
+        <v>3979887</v>
       </c>
       <c r="I58" s="11">
-        <v>3979887</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3558659</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>26</v>
+      <c r="E59" s="9">
+        <v>37030</v>
       </c>
       <c r="F59" s="9">
-        <v>37030</v>
+        <v>149476</v>
       </c>
       <c r="G59" s="9">
-        <v>149476</v>
+        <v>52113</v>
       </c>
       <c r="H59" s="9">
-        <v>52113</v>
+        <v>2262</v>
       </c>
       <c r="I59" s="9">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>55309</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>26</v>
+      <c r="E60" s="11">
+        <v>84784</v>
       </c>
       <c r="F60" s="11">
-        <v>84784</v>
+        <v>96013</v>
       </c>
       <c r="G60" s="11">
-        <v>96013</v>
+        <v>80324</v>
       </c>
       <c r="H60" s="11">
-        <v>80324</v>
+        <v>60976</v>
       </c>
       <c r="I60" s="11">
-        <v>60976</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>88641</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>26</v>
+      <c r="E61" s="9">
+        <v>825114</v>
       </c>
       <c r="F61" s="9">
-        <v>825114</v>
+        <v>692806</v>
       </c>
       <c r="G61" s="9">
-        <v>692806</v>
+        <v>202066</v>
       </c>
       <c r="H61" s="9">
-        <v>202066</v>
+        <v>29939</v>
       </c>
       <c r="I61" s="9">
-        <v>29939</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>250443</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="11"/>
+      <c r="E62" s="11">
+        <v>14124302</v>
+      </c>
+      <c r="F62" s="11">
+        <v>12743930</v>
+      </c>
+      <c r="G62" s="11">
+        <v>15445534</v>
+      </c>
+      <c r="H62" s="11">
+        <v>13763180</v>
+      </c>
+      <c r="I62" s="11">
+        <v>16024126</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="11">
-        <v>14124302</v>
-      </c>
-      <c r="G62" s="11">
-        <v>12743930</v>
-      </c>
-      <c r="H62" s="11">
-        <v>15445534</v>
-      </c>
-      <c r="I62" s="11">
-        <v>13763180</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>26</v>
+      <c r="E63" s="9">
+        <v>78664</v>
       </c>
       <c r="F63" s="9">
-        <v>78664</v>
+        <v>89651</v>
       </c>
       <c r="G63" s="9">
-        <v>89651</v>
+        <v>83496</v>
       </c>
       <c r="H63" s="9">
-        <v>83496</v>
+        <v>76643</v>
       </c>
       <c r="I63" s="9">
-        <v>76643</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>97001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>26</v>
+      <c r="E64" s="11">
+        <v>0</v>
       </c>
       <c r="F64" s="11">
         <v>0</v>
       </c>
       <c r="G64" s="11">
-        <v>0</v>
+        <v>4959</v>
       </c>
       <c r="H64" s="11">
-        <v>4959</v>
+        <v>39074</v>
       </c>
       <c r="I64" s="11">
-        <v>39074</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27484</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
-        <v>0</v>
+        <v>17642187</v>
       </c>
       <c r="F65" s="15">
-        <v>17642187</v>
+        <v>16243551</v>
       </c>
       <c r="G65" s="15">
-        <v>16243551</v>
+        <v>19464415</v>
       </c>
       <c r="H65" s="15">
-        <v>19464415</v>
+        <v>17951961</v>
       </c>
       <c r="I65" s="15">
-        <v>17951961</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20101663</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1920,7 +1920,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1930,7 +1930,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1940,9 +1940,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1962,7 +1962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1972,7 +1972,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
@@ -1980,11 +1980,11 @@
         <v>25</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>26</v>
+      <c r="E71" s="9">
+        <v>7444</v>
       </c>
       <c r="F71" s="9">
-        <v>7444</v>
+        <v>187</v>
       </c>
       <c r="G71" s="9">
         <v>187</v>
@@ -1996,197 +1996,197 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>26</v>
+      <c r="E72" s="11">
+        <v>797484</v>
       </c>
       <c r="F72" s="11">
-        <v>797484</v>
+        <v>828921</v>
       </c>
       <c r="G72" s="11">
-        <v>828921</v>
+        <v>333470</v>
       </c>
       <c r="H72" s="11">
-        <v>333470</v>
+        <v>353808</v>
       </c>
       <c r="I72" s="11">
-        <v>353808</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2065173</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>26</v>
+      <c r="E73" s="9">
+        <v>8241</v>
       </c>
       <c r="F73" s="9">
-        <v>8241</v>
+        <v>6393</v>
       </c>
       <c r="G73" s="9">
-        <v>6393</v>
+        <v>54555</v>
       </c>
       <c r="H73" s="9">
-        <v>54555</v>
+        <v>52888</v>
       </c>
       <c r="I73" s="9">
-        <v>52888</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>26</v>
+      <c r="E74" s="11">
+        <v>1954</v>
       </c>
       <c r="F74" s="11">
-        <v>1954</v>
+        <v>29900</v>
       </c>
       <c r="G74" s="11">
-        <v>29900</v>
+        <v>21880</v>
       </c>
       <c r="H74" s="11">
-        <v>21880</v>
+        <v>7286</v>
       </c>
       <c r="I74" s="11">
-        <v>7286</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18298</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>26</v>
+      <c r="E75" s="9">
+        <v>29024</v>
       </c>
       <c r="F75" s="9">
-        <v>29024</v>
+        <v>77997</v>
       </c>
       <c r="G75" s="9">
-        <v>77997</v>
+        <v>39343</v>
       </c>
       <c r="H75" s="9">
-        <v>39343</v>
+        <v>13173</v>
       </c>
       <c r="I75" s="9">
-        <v>13173</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36291</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="D76" s="11"/>
+      <c r="E76" s="11">
+        <v>679440</v>
+      </c>
+      <c r="F76" s="11">
+        <v>696533</v>
+      </c>
+      <c r="G76" s="11">
+        <v>5790937</v>
+      </c>
+      <c r="H76" s="11">
+        <v>13778486</v>
+      </c>
+      <c r="I76" s="11">
+        <v>3544460</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="11">
-        <v>679440</v>
-      </c>
-      <c r="G76" s="11">
-        <v>696533</v>
-      </c>
-      <c r="H76" s="11">
-        <v>5790937</v>
-      </c>
-      <c r="I76" s="11">
-        <v>13778486</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>26</v>
+      <c r="E77" s="9">
+        <v>15700</v>
       </c>
       <c r="F77" s="9">
-        <v>15700</v>
+        <v>20904</v>
       </c>
       <c r="G77" s="9">
-        <v>20904</v>
+        <v>18484</v>
       </c>
       <c r="H77" s="9">
-        <v>18484</v>
+        <v>51735</v>
       </c>
       <c r="I77" s="9">
-        <v>51735</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32916</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>26</v>
+      <c r="E78" s="11">
+        <v>235</v>
       </c>
       <c r="F78" s="11">
         <v>235</v>
       </c>
       <c r="G78" s="11">
-        <v>235</v>
+        <v>5412</v>
       </c>
       <c r="H78" s="11">
-        <v>5412</v>
+        <v>8898</v>
       </c>
       <c r="I78" s="11">
-        <v>8898</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>0</v>
+        <v>1539522</v>
       </c>
       <c r="F79" s="15">
-        <v>1539522</v>
+        <v>1661070</v>
       </c>
       <c r="G79" s="15">
-        <v>1661070</v>
+        <v>6264268</v>
       </c>
       <c r="H79" s="15">
-        <v>6264268</v>
+        <v>14266461</v>
       </c>
       <c r="I79" s="15">
-        <v>14266461</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5699928</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2196,7 +2196,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2206,7 +2206,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2216,9 +2216,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2238,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2248,22 +2248,22 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>26</v>
+      <c r="E85" s="9">
+        <v>2861</v>
       </c>
       <c r="F85" s="9">
         <v>2861</v>
       </c>
       <c r="G85" s="9">
-        <v>2861</v>
+        <v>72</v>
       </c>
       <c r="H85" s="9">
         <v>72</v>
@@ -2272,197 +2272,197 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11">
+        <v>86513</v>
+      </c>
+      <c r="F86" s="11">
+        <v>38357</v>
+      </c>
+      <c r="G86" s="11">
+        <v>47976</v>
+      </c>
+      <c r="H86" s="11">
+        <v>38097</v>
+      </c>
+      <c r="I86" s="11">
+        <v>100211</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="11">
-        <v>86513</v>
-      </c>
-      <c r="G86" s="11">
-        <v>38357</v>
-      </c>
-      <c r="H86" s="11">
-        <v>47976</v>
-      </c>
-      <c r="I86" s="11">
-        <v>38097</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="8" t="s">
+      <c r="C87" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9">
+        <v>1471</v>
+      </c>
+      <c r="F87" s="9">
+        <v>2458</v>
+      </c>
+      <c r="G87" s="9">
+        <v>3085</v>
+      </c>
+      <c r="H87" s="9">
+        <v>30895</v>
+      </c>
+      <c r="I87" s="9">
+        <v>29995</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="9">
-        <v>1471</v>
-      </c>
-      <c r="G87" s="9">
-        <v>2458</v>
-      </c>
-      <c r="H87" s="9">
-        <v>3085</v>
-      </c>
-      <c r="I87" s="9">
-        <v>30895</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="10" t="s">
+      <c r="C88" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11">
+        <v>2842</v>
+      </c>
+      <c r="F88" s="11">
+        <v>303</v>
+      </c>
+      <c r="G88" s="11">
+        <v>4541</v>
+      </c>
+      <c r="H88" s="11">
+        <v>7047</v>
+      </c>
+      <c r="I88" s="11">
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F88" s="11">
-        <v>2842</v>
-      </c>
-      <c r="G88" s="11">
-        <v>303</v>
-      </c>
-      <c r="H88" s="11">
-        <v>4541</v>
-      </c>
-      <c r="I88" s="11">
-        <v>7047</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
+      <c r="C89" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9">
+        <v>6445</v>
+      </c>
+      <c r="F89" s="9">
+        <v>1885</v>
+      </c>
+      <c r="G89" s="9">
+        <v>3867</v>
+      </c>
+      <c r="H89" s="9">
+        <v>1794</v>
+      </c>
+      <c r="I89" s="9">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F89" s="9">
-        <v>6445</v>
-      </c>
-      <c r="G89" s="9">
-        <v>1885</v>
-      </c>
-      <c r="H89" s="9">
-        <v>3867</v>
-      </c>
-      <c r="I89" s="9">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="10" t="s">
+      <c r="C90" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11">
+        <v>18028</v>
+      </c>
+      <c r="F90" s="11">
+        <v>9126</v>
+      </c>
+      <c r="G90" s="11">
+        <v>14541</v>
+      </c>
+      <c r="H90" s="11">
+        <v>199820</v>
+      </c>
+      <c r="I90" s="11">
+        <v>503809</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9">
+        <v>3353</v>
+      </c>
+      <c r="F91" s="9">
+        <v>16254</v>
+      </c>
+      <c r="G91" s="9">
+        <v>23607</v>
+      </c>
+      <c r="H91" s="9">
+        <v>44992</v>
+      </c>
+      <c r="I91" s="9">
+        <v>201950</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
         <v>31</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F90" s="11">
-        <v>18028</v>
-      </c>
-      <c r="G90" s="11">
-        <v>9126</v>
-      </c>
-      <c r="H90" s="11">
-        <v>14541</v>
-      </c>
-      <c r="I90" s="11">
-        <v>199820</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F91" s="9">
-        <v>3353</v>
-      </c>
-      <c r="G91" s="9">
-        <v>16254</v>
-      </c>
-      <c r="H91" s="9">
-        <v>23607</v>
-      </c>
-      <c r="I91" s="9">
-        <v>44992</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F92" s="11">
-        <v>0</v>
       </c>
       <c r="G92" s="11">
         <v>31</v>
       </c>
       <c r="H92" s="11">
-        <v>31</v>
+        <v>622</v>
       </c>
       <c r="I92" s="11">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7777</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>0</v>
+        <v>121513</v>
       </c>
       <c r="F93" s="15">
-        <v>121513</v>
+        <v>71275</v>
       </c>
       <c r="G93" s="15">
-        <v>71275</v>
+        <v>97720</v>
       </c>
       <c r="H93" s="15">
-        <v>97720</v>
+        <v>323339</v>
       </c>
       <c r="I93" s="15">
-        <v>323339</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>850111</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2472,7 +2472,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2482,7 +2482,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2492,9 +2492,9 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2514,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2524,221 +2524,221 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="9">
+        <v>0</v>
+      </c>
+      <c r="F99" s="9">
+        <v>0</v>
+      </c>
+      <c r="G99" s="9">
+        <v>0</v>
+      </c>
+      <c r="H99" s="9">
+        <v>0</v>
+      </c>
+      <c r="I99" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F99" s="9">
-        <v>0</v>
-      </c>
-      <c r="G99" s="9">
-        <v>0</v>
-      </c>
-      <c r="H99" s="9">
-        <v>0</v>
-      </c>
-      <c r="I99" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
+      <c r="C100" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11">
+        <v>75000</v>
+      </c>
+      <c r="F100" s="11">
+        <v>142313</v>
+      </c>
+      <c r="G100" s="11">
+        <v>284174</v>
+      </c>
+      <c r="H100" s="11">
+        <v>1002655</v>
+      </c>
+      <c r="I100" s="11">
+        <v>2264329</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F100" s="11">
-        <v>75000</v>
-      </c>
-      <c r="G100" s="11">
-        <v>142313</v>
-      </c>
-      <c r="H100" s="11">
-        <v>284174</v>
-      </c>
-      <c r="I100" s="11">
-        <v>1002655</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
+      <c r="C101" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9">
+        <v>8744</v>
+      </c>
+      <c r="F101" s="9">
+        <v>65216</v>
+      </c>
+      <c r="G101" s="9">
+        <v>57156</v>
+      </c>
+      <c r="H101" s="9">
+        <v>382</v>
+      </c>
+      <c r="I101" s="9">
+        <v>5382</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F101" s="9">
-        <v>8744</v>
-      </c>
-      <c r="G101" s="9">
-        <v>65216</v>
-      </c>
-      <c r="H101" s="9">
-        <v>57156</v>
-      </c>
-      <c r="I101" s="9">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
+      <c r="C102" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11">
+        <v>9000</v>
+      </c>
+      <c r="F102" s="11">
+        <v>19349</v>
+      </c>
+      <c r="G102" s="11">
+        <v>22195</v>
+      </c>
+      <c r="H102" s="11">
+        <v>23180</v>
+      </c>
+      <c r="I102" s="11">
+        <v>92337</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F102" s="11">
-        <v>9000</v>
-      </c>
-      <c r="G102" s="11">
-        <v>19349</v>
-      </c>
-      <c r="H102" s="11">
-        <v>22195</v>
-      </c>
-      <c r="I102" s="11">
-        <v>23180</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="8" t="s">
+      <c r="C103" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9">
+        <v>24031</v>
+      </c>
+      <c r="F103" s="9">
+        <v>30174</v>
+      </c>
+      <c r="G103" s="9">
+        <v>7543</v>
+      </c>
+      <c r="H103" s="9">
+        <v>895</v>
+      </c>
+      <c r="I103" s="9">
+        <v>126864</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F103" s="9">
-        <v>24031</v>
-      </c>
-      <c r="G103" s="9">
-        <v>30174</v>
-      </c>
-      <c r="H103" s="9">
-        <v>7543</v>
-      </c>
-      <c r="I103" s="9">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="10" t="s">
+      <c r="C104" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11">
+        <v>164718</v>
+      </c>
+      <c r="F104" s="11">
+        <v>190099</v>
+      </c>
+      <c r="G104" s="11">
+        <v>552165</v>
+      </c>
+      <c r="H104" s="11">
+        <v>791081</v>
+      </c>
+      <c r="I104" s="11">
+        <v>196243</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9">
+        <v>71793</v>
+      </c>
+      <c r="F105" s="9">
+        <v>104606</v>
+      </c>
+      <c r="G105" s="9">
+        <v>141095</v>
+      </c>
+      <c r="H105" s="9">
+        <v>436539</v>
+      </c>
+      <c r="I105" s="9">
+        <v>513366</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11">
         <v>31</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F104" s="11">
-        <v>164718</v>
-      </c>
-      <c r="G104" s="11">
-        <v>190099</v>
-      </c>
-      <c r="H104" s="11">
-        <v>552165</v>
-      </c>
-      <c r="I104" s="11">
-        <v>791081</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F105" s="9">
-        <v>71793</v>
-      </c>
-      <c r="G105" s="9">
-        <v>104606</v>
-      </c>
-      <c r="H105" s="9">
-        <v>141095</v>
-      </c>
-      <c r="I105" s="9">
-        <v>436539</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="F106" s="11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G106" s="11">
-        <v>0</v>
+        <v>5078</v>
       </c>
       <c r="H106" s="11">
-        <v>5078</v>
+        <v>31175</v>
       </c>
       <c r="I106" s="11">
-        <v>31175</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31197</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>0</v>
+        <v>353317</v>
       </c>
       <c r="F107" s="15">
-        <v>353317</v>
+        <v>551757</v>
       </c>
       <c r="G107" s="15">
-        <v>551757</v>
+        <v>1069406</v>
       </c>
       <c r="H107" s="15">
-        <v>1069406</v>
+        <v>2285907</v>
       </c>
       <c r="I107" s="15">
-        <v>2285907</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3229718</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2748,7 +2748,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2758,7 +2758,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2768,9 +2768,9 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2790,7 +2790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2800,221 +2800,221 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="9">
+        <v>0</v>
+      </c>
+      <c r="F113" s="9">
+        <v>2789</v>
+      </c>
+      <c r="G113" s="9">
+        <v>0</v>
+      </c>
+      <c r="H113" s="9">
+        <v>0</v>
+      </c>
+      <c r="I113" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F113" s="9">
-        <v>0</v>
-      </c>
-      <c r="G113" s="9">
-        <v>2789</v>
-      </c>
-      <c r="H113" s="9">
-        <v>0</v>
-      </c>
-      <c r="I113" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="10" t="s">
+      <c r="C114" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11">
+        <v>123157</v>
+      </c>
+      <c r="F114" s="11">
+        <v>132694</v>
+      </c>
+      <c r="G114" s="11">
+        <v>293059</v>
+      </c>
+      <c r="H114" s="11">
+        <v>940541</v>
+      </c>
+      <c r="I114" s="11">
+        <v>1577889</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F114" s="11">
-        <v>123157</v>
-      </c>
-      <c r="G114" s="11">
-        <v>132694</v>
-      </c>
-      <c r="H114" s="11">
-        <v>293059</v>
-      </c>
-      <c r="I114" s="11">
-        <v>940541</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="8" t="s">
+      <c r="C115" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9">
+        <v>7757</v>
+      </c>
+      <c r="F115" s="9">
+        <v>64589</v>
+      </c>
+      <c r="G115" s="9">
+        <v>29347</v>
+      </c>
+      <c r="H115" s="9">
+        <v>1283</v>
+      </c>
+      <c r="I115" s="9">
+        <v>34883</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F115" s="9">
-        <v>7757</v>
-      </c>
-      <c r="G115" s="9">
-        <v>64589</v>
-      </c>
-      <c r="H115" s="9">
-        <v>29347</v>
-      </c>
-      <c r="I115" s="9">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
+      <c r="C116" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11">
+        <v>11540</v>
+      </c>
+      <c r="F116" s="11">
+        <v>15111</v>
+      </c>
+      <c r="G116" s="11">
+        <v>19884</v>
+      </c>
+      <c r="H116" s="11">
+        <v>24879</v>
+      </c>
+      <c r="I116" s="11">
+        <v>79644</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F116" s="11">
-        <v>11540</v>
-      </c>
-      <c r="G116" s="11">
-        <v>15111</v>
-      </c>
-      <c r="H116" s="11">
-        <v>19884</v>
-      </c>
-      <c r="I116" s="11">
-        <v>24879</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="8" t="s">
+      <c r="C117" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9">
+        <v>28592</v>
+      </c>
+      <c r="F117" s="9">
+        <v>28192</v>
+      </c>
+      <c r="G117" s="9">
+        <v>8989</v>
+      </c>
+      <c r="H117" s="9">
+        <v>1741</v>
+      </c>
+      <c r="I117" s="9">
+        <v>111233</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="9">
-        <v>28592</v>
-      </c>
-      <c r="G117" s="9">
-        <v>28192</v>
-      </c>
-      <c r="H117" s="9">
-        <v>8989</v>
-      </c>
-      <c r="I117" s="9">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="C118" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>26</v>
+      <c r="E118" s="11">
+        <v>167399</v>
       </c>
       <c r="F118" s="11">
-        <v>167399</v>
+        <v>184684</v>
       </c>
       <c r="G118" s="11">
-        <v>184684</v>
+        <v>454415</v>
       </c>
       <c r="H118" s="11">
-        <v>454415</v>
+        <v>380241</v>
       </c>
       <c r="I118" s="11">
-        <v>380241</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>574991</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9">
+        <v>58892</v>
+      </c>
+      <c r="F119" s="9">
+        <v>97253</v>
+      </c>
+      <c r="G119" s="9">
+        <v>120840</v>
+      </c>
+      <c r="H119" s="9">
+        <v>279582</v>
+      </c>
+      <c r="I119" s="9">
+        <v>510654</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="9">
-        <v>58892</v>
-      </c>
-      <c r="G119" s="9">
-        <v>97253</v>
-      </c>
-      <c r="H119" s="9">
-        <v>120840</v>
-      </c>
-      <c r="I119" s="9">
-        <v>279582</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="C120" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>26</v>
+      <c r="E120" s="11">
+        <v>0</v>
       </c>
       <c r="F120" s="11">
         <v>0</v>
       </c>
       <c r="G120" s="11">
-        <v>0</v>
+        <v>2323</v>
       </c>
       <c r="H120" s="11">
-        <v>2323</v>
+        <v>24020</v>
       </c>
       <c r="I120" s="11">
-        <v>24020</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35679</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
-        <v>0</v>
+        <v>397337</v>
       </c>
       <c r="F121" s="15">
-        <v>397337</v>
+        <v>525312</v>
       </c>
       <c r="G121" s="15">
-        <v>525312</v>
+        <v>928857</v>
       </c>
       <c r="H121" s="15">
-        <v>928857</v>
+        <v>1652287</v>
       </c>
       <c r="I121" s="15">
-        <v>1652287</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2924973</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3024,7 +3024,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3034,7 +3034,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3044,9 +3044,9 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3066,7 +3066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3076,19 +3076,19 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
-        <v>26</v>
+      <c r="E127" s="9">
+        <v>2861</v>
       </c>
       <c r="F127" s="9">
-        <v>2861</v>
+        <v>72</v>
       </c>
       <c r="G127" s="9">
         <v>72</v>
@@ -3100,197 +3100,197 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11">
+        <v>38356</v>
+      </c>
+      <c r="F128" s="11">
+        <v>47976</v>
+      </c>
+      <c r="G128" s="11">
+        <v>39091</v>
+      </c>
+      <c r="H128" s="11">
+        <v>100211</v>
+      </c>
+      <c r="I128" s="11">
+        <v>786651</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F128" s="11">
-        <v>38356</v>
-      </c>
-      <c r="G128" s="11">
-        <v>47976</v>
-      </c>
-      <c r="H128" s="11">
-        <v>39091</v>
-      </c>
-      <c r="I128" s="11">
-        <v>100211</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="8" t="s">
+      <c r="C129" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9">
+        <v>2458</v>
+      </c>
+      <c r="F129" s="9">
+        <v>3085</v>
+      </c>
+      <c r="G129" s="9">
+        <v>30894</v>
+      </c>
+      <c r="H129" s="9">
+        <v>29994</v>
+      </c>
+      <c r="I129" s="9">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" s="9">
-        <v>2458</v>
-      </c>
-      <c r="G129" s="9">
-        <v>3085</v>
-      </c>
-      <c r="H129" s="9">
-        <v>30894</v>
-      </c>
-      <c r="I129" s="9">
-        <v>29994</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="10" t="s">
+      <c r="C130" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11">
+        <v>302</v>
+      </c>
+      <c r="F130" s="11">
+        <v>4541</v>
+      </c>
+      <c r="G130" s="11">
+        <v>6852</v>
+      </c>
+      <c r="H130" s="11">
+        <v>5348</v>
+      </c>
+      <c r="I130" s="11">
+        <v>18041</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C130" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F130" s="11">
-        <v>302</v>
-      </c>
-      <c r="G130" s="11">
-        <v>4541</v>
-      </c>
-      <c r="H130" s="11">
-        <v>6852</v>
-      </c>
-      <c r="I130" s="11">
-        <v>5348</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="8" t="s">
+      <c r="C131" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9">
+        <v>1884</v>
+      </c>
+      <c r="F131" s="9">
+        <v>3867</v>
+      </c>
+      <c r="G131" s="9">
+        <v>2421</v>
+      </c>
+      <c r="H131" s="9">
+        <v>948</v>
+      </c>
+      <c r="I131" s="9">
+        <v>16580</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C131" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F131" s="9">
-        <v>1884</v>
-      </c>
-      <c r="G131" s="9">
-        <v>3867</v>
-      </c>
-      <c r="H131" s="9">
-        <v>2421</v>
-      </c>
-      <c r="I131" s="9">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="10" t="s">
+      <c r="C132" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11">
+        <v>15347</v>
+      </c>
+      <c r="F132" s="11">
+        <v>14541</v>
+      </c>
+      <c r="G132" s="11">
+        <v>112291</v>
+      </c>
+      <c r="H132" s="11">
+        <v>610660</v>
+      </c>
+      <c r="I132" s="11">
+        <v>125061</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9">
+        <v>16254</v>
+      </c>
+      <c r="F133" s="9">
+        <v>23607</v>
+      </c>
+      <c r="G133" s="9">
+        <v>43862</v>
+      </c>
+      <c r="H133" s="9">
+        <v>201949</v>
+      </c>
+      <c r="I133" s="9">
+        <v>204662</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11">
         <v>31</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F132" s="11">
-        <v>15347</v>
-      </c>
-      <c r="G132" s="11">
-        <v>14541</v>
-      </c>
-      <c r="H132" s="11">
-        <v>112291</v>
-      </c>
-      <c r="I132" s="11">
-        <v>610660</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F133" s="9">
-        <v>16254</v>
-      </c>
-      <c r="G133" s="9">
-        <v>23607</v>
-      </c>
-      <c r="H133" s="9">
-        <v>43862</v>
-      </c>
-      <c r="I133" s="9">
-        <v>201949</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="F134" s="11">
         <v>31</v>
       </c>
       <c r="G134" s="11">
-        <v>31</v>
+        <v>2786</v>
       </c>
       <c r="H134" s="11">
-        <v>2786</v>
+        <v>7777</v>
       </c>
       <c r="I134" s="11">
-        <v>7777</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>0</v>
+        <v>77493</v>
       </c>
       <c r="F135" s="15">
-        <v>77493</v>
+        <v>97720</v>
       </c>
       <c r="G135" s="15">
-        <v>97720</v>
+        <v>238269</v>
       </c>
       <c r="H135" s="15">
-        <v>238269</v>
+        <v>956959</v>
       </c>
       <c r="I135" s="15">
-        <v>956959</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1154856</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3300,7 +3300,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3310,7 +3310,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3320,9 +3320,9 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3342,7 +3342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3352,22 +3352,22 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>26</v>
+      <c r="E141" s="9">
+        <v>384336</v>
       </c>
       <c r="F141" s="9">
         <v>384336</v>
       </c>
       <c r="G141" s="9">
-        <v>384336</v>
+        <v>385027</v>
       </c>
       <c r="H141" s="9">
         <v>385027</v>
@@ -3376,175 +3376,175 @@
         <v>385027</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11">
+        <v>44104</v>
+      </c>
+      <c r="F142" s="11">
+        <v>48097</v>
+      </c>
+      <c r="G142" s="11">
+        <v>57878</v>
+      </c>
+      <c r="H142" s="11">
+        <v>114244</v>
+      </c>
+      <c r="I142" s="11">
+        <v>283236</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C143" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9">
+        <v>173898</v>
+      </c>
+      <c r="F143" s="9">
+        <v>298265</v>
+      </c>
+      <c r="G143" s="9">
+        <v>482559</v>
+      </c>
+      <c r="H143" s="9">
+        <v>567141</v>
+      </c>
+      <c r="I143" s="9">
+        <v>567131</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11">
+        <v>112492</v>
+      </c>
+      <c r="F144" s="11">
+        <v>155067</v>
+      </c>
+      <c r="G144" s="11">
+        <v>151873</v>
+      </c>
+      <c r="H144" s="11">
+        <v>347417</v>
+      </c>
+      <c r="I144" s="11">
+        <v>734111</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9">
+        <v>32408</v>
+      </c>
+      <c r="F145" s="9">
+        <v>64946</v>
+      </c>
+      <c r="G145" s="9">
+        <v>49579</v>
+      </c>
+      <c r="H145" s="9">
+        <v>45598</v>
+      </c>
+      <c r="I145" s="9">
+        <v>72041</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F142" s="11">
-        <v>44104</v>
-      </c>
-      <c r="G142" s="11">
-        <v>48097</v>
-      </c>
-      <c r="H142" s="11">
-        <v>57878</v>
-      </c>
-      <c r="I142" s="11">
-        <v>114244</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F143" s="9">
-        <v>173898</v>
-      </c>
-      <c r="G143" s="9">
-        <v>298265</v>
-      </c>
-      <c r="H143" s="9">
-        <v>482559</v>
-      </c>
-      <c r="I143" s="9">
-        <v>567141</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F144" s="11">
-        <v>112492</v>
-      </c>
-      <c r="G144" s="11">
-        <v>155067</v>
-      </c>
-      <c r="H144" s="11">
-        <v>151873</v>
-      </c>
-      <c r="I144" s="11">
-        <v>347417</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F145" s="9">
-        <v>32408</v>
-      </c>
-      <c r="G145" s="9">
-        <v>64946</v>
-      </c>
-      <c r="H145" s="9">
-        <v>49579</v>
-      </c>
-      <c r="I145" s="9">
-        <v>45598</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>26</v>
+      <c r="E146" s="11">
+        <v>7182</v>
       </c>
       <c r="F146" s="11">
-        <v>7182</v>
+        <v>44872</v>
       </c>
       <c r="G146" s="11">
-        <v>44872</v>
+        <v>20876</v>
       </c>
       <c r="H146" s="11">
-        <v>20876</v>
+        <v>33094</v>
       </c>
       <c r="I146" s="11">
-        <v>33094</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36565</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9">
+        <v>605125</v>
+      </c>
+      <c r="F147" s="9">
+        <v>1035221</v>
+      </c>
+      <c r="G147" s="9">
+        <v>1129305</v>
+      </c>
+      <c r="H147" s="9">
+        <v>2434764</v>
+      </c>
+      <c r="I147" s="9">
+        <v>3903547</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C147" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F147" s="9">
-        <v>605125</v>
-      </c>
-      <c r="G147" s="9">
-        <v>1035221</v>
-      </c>
-      <c r="H147" s="9">
-        <v>1129305</v>
-      </c>
-      <c r="I147" s="9">
-        <v>2434764</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="C148" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="F148" s="11">
+        <v>131915</v>
       </c>
       <c r="G148" s="11">
         <v>131915</v>
       </c>
       <c r="H148" s="11">
-        <v>131915</v>
+        <v>114930</v>
       </c>
       <c r="I148" s="11">
-        <v>114930</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>874017</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3554,7 +3554,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3564,7 +3564,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3574,7 +3574,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
         <v>46</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3606,175 +3606,175 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9">
+        <v>56467</v>
+      </c>
+      <c r="F154" s="9">
+        <v>57020</v>
+      </c>
+      <c r="G154" s="9">
+        <v>91655</v>
+      </c>
+      <c r="H154" s="9">
+        <v>250650</v>
+      </c>
+      <c r="I154" s="9">
+        <v>429662</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C155" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11">
+        <v>237531</v>
+      </c>
+      <c r="F155" s="11">
+        <v>441759</v>
+      </c>
+      <c r="G155" s="11">
+        <v>569993</v>
+      </c>
+      <c r="H155" s="11">
+        <v>565926</v>
+      </c>
+      <c r="I155" s="11">
+        <v>1806647</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9">
+        <v>146403</v>
+      </c>
+      <c r="F156" s="9">
+        <v>156092</v>
+      </c>
+      <c r="G156" s="9">
+        <v>306968</v>
+      </c>
+      <c r="H156" s="9">
+        <v>483138</v>
+      </c>
+      <c r="I156" s="9">
+        <v>926576</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11">
+        <v>36673</v>
+      </c>
+      <c r="F157" s="11">
+        <v>40678</v>
+      </c>
+      <c r="G157" s="11">
+        <v>46159</v>
+      </c>
+      <c r="H157" s="11">
+        <v>237527</v>
+      </c>
+      <c r="I157" s="11">
+        <v>463750</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F154" s="9">
-        <v>56467</v>
-      </c>
-      <c r="G154" s="9">
-        <v>57020</v>
-      </c>
-      <c r="H154" s="9">
-        <v>91655</v>
-      </c>
-      <c r="I154" s="9">
-        <v>250650</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F155" s="11">
-        <v>237531</v>
-      </c>
-      <c r="G155" s="11">
-        <v>441759</v>
-      </c>
-      <c r="H155" s="11">
-        <v>569993</v>
-      </c>
-      <c r="I155" s="11">
-        <v>565926</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B156" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F156" s="9">
-        <v>146403</v>
-      </c>
-      <c r="G156" s="9">
-        <v>156092</v>
-      </c>
-      <c r="H156" s="9">
-        <v>306968</v>
-      </c>
-      <c r="I156" s="9">
-        <v>483138</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F157" s="11">
-        <v>36673</v>
-      </c>
-      <c r="G157" s="11">
-        <v>40678</v>
-      </c>
-      <c r="H157" s="11">
-        <v>46159</v>
-      </c>
-      <c r="I157" s="11">
-        <v>237527</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C158" s="9" t="s">
+      <c r="D158" s="9"/>
+      <c r="E158" s="9">
+        <v>13399</v>
+      </c>
+      <c r="F158" s="9">
+        <v>14361</v>
+      </c>
+      <c r="G158" s="9">
+        <v>26883</v>
+      </c>
+      <c r="H158" s="9">
+        <v>36788</v>
+      </c>
+      <c r="I158" s="9">
+        <v>33893</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11">
+        <v>808270</v>
+      </c>
+      <c r="F159" s="11">
+        <v>1102811</v>
+      </c>
+      <c r="G159" s="11">
+        <v>1740281</v>
+      </c>
+      <c r="H159" s="11">
+        <v>3972184</v>
+      </c>
+      <c r="I159" s="11">
+        <v>6566294</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9">
+        <v>131915</v>
+      </c>
+      <c r="F160" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F158" s="9">
-        <v>13399</v>
-      </c>
-      <c r="G158" s="9">
-        <v>14361</v>
-      </c>
-      <c r="H158" s="9">
-        <v>26883</v>
-      </c>
-      <c r="I158" s="9">
-        <v>36788</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F159" s="11">
-        <v>808270</v>
-      </c>
-      <c r="G159" s="11">
-        <v>1102811</v>
-      </c>
-      <c r="H159" s="11">
-        <v>1740281</v>
-      </c>
-      <c r="I159" s="11">
-        <v>3972184</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F160" s="9">
-        <v>131915</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>26</v>
+      <c r="G160" s="9">
+        <v>500987</v>
       </c>
       <c r="H160" s="9">
-        <v>500987</v>
+        <v>732495</v>
       </c>
       <c r="I160" s="9">
-        <v>732495</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1512215</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3784,7 +3784,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3794,7 +3794,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3804,7 +3804,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B164" s="7" t="s">
         <v>47</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3836,199 +3836,199 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F166" s="9">
+        <v>384319</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B167" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F166" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G166" s="9">
-        <v>384319</v>
-      </c>
-      <c r="H166" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I166" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B167" s="10" t="s">
+      <c r="C167" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11">
+        <v>49415</v>
+      </c>
+      <c r="F167" s="11">
+        <v>53844</v>
+      </c>
+      <c r="G167" s="11">
+        <v>81498</v>
+      </c>
+      <c r="H167" s="11">
+        <v>236324</v>
+      </c>
+      <c r="I167" s="11">
+        <v>443394</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B168" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C168" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9">
+        <v>209479</v>
+      </c>
+      <c r="F168" s="9">
+        <v>432103</v>
+      </c>
+      <c r="G168" s="9">
+        <v>563142</v>
+      </c>
+      <c r="H168" s="9">
+        <v>567197</v>
+      </c>
+      <c r="I168" s="9">
+        <v>630693</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11">
+        <v>136111</v>
+      </c>
+      <c r="F169" s="11">
+        <v>157385</v>
+      </c>
+      <c r="G169" s="11">
+        <v>247547</v>
+      </c>
+      <c r="H169" s="11">
+        <v>408013</v>
+      </c>
+      <c r="I169" s="11">
+        <v>898501</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B170" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9">
+        <v>34652</v>
+      </c>
+      <c r="F170" s="9">
+        <v>40692</v>
+      </c>
+      <c r="G170" s="9">
+        <v>44485</v>
+      </c>
+      <c r="H170" s="9">
+        <v>58152</v>
+      </c>
+      <c r="I170" s="9">
+        <v>444145</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F167" s="11">
-        <v>49415</v>
-      </c>
-      <c r="G167" s="11">
-        <v>53844</v>
-      </c>
-      <c r="H167" s="11">
-        <v>81498</v>
-      </c>
-      <c r="I167" s="11">
-        <v>236324</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B168" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F168" s="9">
-        <v>209479</v>
-      </c>
-      <c r="G168" s="9">
-        <v>432103</v>
-      </c>
-      <c r="H168" s="9">
-        <v>563142</v>
-      </c>
-      <c r="I168" s="9">
-        <v>567197</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D169" s="11"/>
-      <c r="E169" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F169" s="11">
-        <v>136111</v>
-      </c>
-      <c r="G169" s="11">
-        <v>157385</v>
-      </c>
-      <c r="H169" s="11">
-        <v>247547</v>
-      </c>
-      <c r="I169" s="11">
-        <v>408013</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F170" s="9">
-        <v>34652</v>
-      </c>
-      <c r="G170" s="9">
-        <v>40692</v>
-      </c>
-      <c r="H170" s="9">
-        <v>44485</v>
-      </c>
-      <c r="I170" s="9">
-        <v>58152</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="D171" s="11"/>
-      <c r="E171" s="11" t="s">
-        <v>26</v>
+      <c r="E171" s="11">
+        <v>11852</v>
       </c>
       <c r="F171" s="11">
-        <v>11852</v>
+        <v>14492</v>
       </c>
       <c r="G171" s="11">
-        <v>14492</v>
+        <v>29420</v>
       </c>
       <c r="H171" s="11">
-        <v>29420</v>
+        <v>27627</v>
       </c>
       <c r="I171" s="11">
-        <v>27627</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35883</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9">
+        <v>748653</v>
+      </c>
+      <c r="F172" s="9">
+        <v>1084795</v>
+      </c>
+      <c r="G172" s="9">
+        <v>1447255</v>
+      </c>
+      <c r="H172" s="9">
+        <v>3647848</v>
+      </c>
+      <c r="I172" s="9">
+        <v>5264420</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B173" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C172" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F172" s="9">
-        <v>748653</v>
-      </c>
-      <c r="G172" s="9">
-        <v>1084795</v>
-      </c>
-      <c r="H172" s="9">
-        <v>1447255</v>
-      </c>
-      <c r="I172" s="9">
-        <v>3647848</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="C173" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" s="11" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="G173" s="11">
+        <v>468441</v>
       </c>
       <c r="H173" s="11">
-        <v>468441</v>
+        <v>614731</v>
       </c>
       <c r="I173" s="11">
-        <v>614731</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1298173</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4038,7 +4038,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4048,7 +4048,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4058,7 +4058,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>48</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4090,7 +4090,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>24</v>
       </c>
@@ -4098,11 +4098,11 @@
         <v>25</v>
       </c>
       <c r="D179" s="9"/>
-      <c r="E179" s="9" t="s">
-        <v>26</v>
+      <c r="E179" s="9">
+        <v>384336</v>
       </c>
       <c r="F179" s="9">
-        <v>384336</v>
+        <v>385027</v>
       </c>
       <c r="G179" s="9">
         <v>385027</v>
@@ -4114,175 +4114,175 @@
         <v>385027</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="11"/>
-      <c r="E180" s="11" t="s">
-        <v>26</v>
+      <c r="E180" s="11">
+        <v>48096</v>
       </c>
       <c r="F180" s="11">
-        <v>48096</v>
+        <v>57878</v>
       </c>
       <c r="G180" s="11">
-        <v>57878</v>
+        <v>117225</v>
       </c>
       <c r="H180" s="11">
-        <v>117225</v>
+        <v>283236</v>
       </c>
       <c r="I180" s="11">
-        <v>283236</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+        <v>380913</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="9"/>
-      <c r="E181" s="9" t="s">
-        <v>26</v>
+      <c r="E181" s="9">
+        <v>298265</v>
       </c>
       <c r="F181" s="9">
-        <v>298265</v>
+        <v>482559</v>
       </c>
       <c r="G181" s="9">
-        <v>482559</v>
+        <v>566291</v>
       </c>
       <c r="H181" s="9">
-        <v>566291</v>
+        <v>567123</v>
       </c>
       <c r="I181" s="9">
-        <v>567123</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+        <v>883721</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="11"/>
-      <c r="E182" s="11" t="s">
-        <v>26</v>
+      <c r="E182" s="11">
+        <v>154555</v>
       </c>
       <c r="F182" s="11">
-        <v>154555</v>
+        <v>151873</v>
       </c>
       <c r="G182" s="11">
-        <v>151873</v>
+        <v>313163</v>
       </c>
       <c r="H182" s="11">
-        <v>313163</v>
+        <v>734010</v>
       </c>
       <c r="I182" s="11">
-        <v>734010</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+        <v>985955</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="9"/>
-      <c r="E183" s="9" t="s">
-        <v>26</v>
+      <c r="E183" s="9">
+        <v>64912</v>
       </c>
       <c r="F183" s="9">
-        <v>64912</v>
+        <v>49579</v>
       </c>
       <c r="G183" s="9">
-        <v>49579</v>
+        <v>61536</v>
       </c>
       <c r="H183" s="9">
-        <v>61536</v>
+        <v>71965</v>
       </c>
       <c r="I183" s="9">
-        <v>71965</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+        <v>456863</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="D184" s="11"/>
+      <c r="E184" s="11">
+        <v>22588</v>
+      </c>
+      <c r="F184" s="11">
+        <v>20876</v>
+      </c>
+      <c r="G184" s="11">
+        <v>19391</v>
+      </c>
+      <c r="H184" s="11">
+        <v>44320</v>
+      </c>
+      <c r="I184" s="11">
+        <v>35284</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B185" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F184" s="11">
-        <v>22588</v>
-      </c>
-      <c r="G184" s="11">
-        <v>20876</v>
-      </c>
-      <c r="H184" s="11">
-        <v>19391</v>
-      </c>
-      <c r="I184" s="11">
-        <v>44320</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="9"/>
-      <c r="E185" s="9" t="s">
-        <v>26</v>
+      <c r="E185" s="9">
+        <v>1035287</v>
       </c>
       <c r="F185" s="9">
-        <v>1035287</v>
+        <v>1129305</v>
       </c>
       <c r="G185" s="9">
-        <v>1129305</v>
+        <v>2372971</v>
       </c>
       <c r="H185" s="9">
-        <v>2372971</v>
+        <v>3903528</v>
       </c>
       <c r="I185" s="9">
-        <v>3903528</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6217706</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="11"/>
-      <c r="E186" s="11" t="s">
-        <v>26</v>
+      <c r="E186" s="11">
+        <v>131915</v>
       </c>
       <c r="F186" s="11">
         <v>131915</v>
       </c>
       <c r="G186" s="11">
-        <v>131915</v>
+        <v>514782</v>
       </c>
       <c r="H186" s="11">
-        <v>514782</v>
+        <v>874017</v>
       </c>
       <c r="I186" s="11">
-        <v>874017</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1612035</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4292,7 +4292,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4302,7 +4302,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4312,7 +4312,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B190" s="7" t="s">
         <v>49</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4344,29 +4344,29 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9">
-        <v>19609</v>
+        <v>19532</v>
       </c>
       <c r="F192" s="9">
-        <v>19532</v>
+        <v>21532</v>
       </c>
       <c r="G192" s="9">
-        <v>21532</v>
+        <v>35126</v>
       </c>
       <c r="H192" s="9">
-        <v>35126</v>
+        <v>34362</v>
       </c>
       <c r="I192" s="9">
-        <v>34362</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+        <v>54360</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>51</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>52</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>53</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>54</v>
       </c>
@@ -4454,73 +4454,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
-        <v>405489</v>
+        <v>423558</v>
       </c>
       <c r="F197" s="11">
-        <v>423558</v>
+        <v>443229</v>
       </c>
       <c r="G197" s="11">
-        <v>443229</v>
+        <v>534460</v>
       </c>
       <c r="H197" s="11">
-        <v>534460</v>
+        <v>1372871</v>
       </c>
       <c r="I197" s="11">
-        <v>1372871</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1688875</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9">
-        <v>357136</v>
+        <v>384081</v>
       </c>
       <c r="F198" s="9">
-        <v>384081</v>
+        <v>419689</v>
       </c>
       <c r="G198" s="9">
-        <v>419689</v>
+        <v>278278</v>
       </c>
       <c r="H198" s="9">
-        <v>278278</v>
+        <v>90904</v>
       </c>
       <c r="I198" s="9">
-        <v>90904</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+        <v>99157</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11">
-        <v>332386</v>
+        <v>374346</v>
       </c>
       <c r="F199" s="11">
-        <v>374346</v>
+        <v>321739</v>
       </c>
       <c r="G199" s="11">
-        <v>321739</v>
+        <v>402174</v>
       </c>
       <c r="H199" s="11">
-        <v>402174</v>
+        <v>526103</v>
       </c>
       <c r="I199" s="11">
-        <v>526103</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1382922</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="8" t="s">
         <v>58</v>
       </c>
@@ -4542,48 +4542,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11">
-        <v>308212</v>
+        <v>358581</v>
       </c>
       <c r="F201" s="11">
-        <v>358581</v>
+        <v>852530</v>
       </c>
       <c r="G201" s="11">
-        <v>852530</v>
+        <v>1471179</v>
       </c>
       <c r="H201" s="11">
-        <v>1471179</v>
+        <v>2496926</v>
       </c>
       <c r="I201" s="11">
-        <v>2496926</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3169847</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15">
-        <v>1422832</v>
+        <v>1560098</v>
       </c>
       <c r="F202" s="15">
-        <v>1560098</v>
+        <v>2058719</v>
       </c>
       <c r="G202" s="15">
-        <v>2058719</v>
+        <v>2721217</v>
       </c>
       <c r="H202" s="15">
-        <v>2721217</v>
+        <v>4521166</v>
       </c>
       <c r="I202" s="15">
-        <v>4521166</v>
+        <v>6395161</v>
       </c>
     </row>
   </sheetData>
